--- a/YouTube_Shorts_Automation/youtube_shorts_crawling/scraperAPI/loaded_db.xlsx
+++ b/YouTube_Shorts_Automation/youtube_shorts_crawling/scraperAPI/loaded_db.xlsx
@@ -16,18 +16,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t>channel_nm</t>
-  </si>
-  <si>
     <t>shorts_title</t>
   </si>
   <si>
     <t>shorts_published_date</t>
   </si>
   <si>
-    <t>shorts_thumbnalil</t>
-  </si>
-  <si>
     <t>shorts_view</t>
   </si>
   <si>
@@ -51,6 +45,14 @@
   </si>
   <si>
     <t>shorts_comments_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>channel_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shorts_thumbnail</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -422,8 +424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -435,37 +437,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/YouTube_Shorts_Automation/youtube_shorts_crawling/scraperAPI/loaded_db.xlsx
+++ b/YouTube_Shorts_Automation/youtube_shorts_crawling/scraperAPI/loaded_db.xlsx
@@ -1,91 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="516" yWindow="504" windowWidth="13344" windowHeight="11892"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>shorts_title</t>
-  </si>
-  <si>
-    <t>shorts_published_date</t>
-  </si>
-  <si>
-    <t>shorts_view</t>
-  </si>
-  <si>
-    <t>check_date</t>
-  </si>
-  <si>
-    <t>shorts_description</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>shorts_url</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>shorts_likes</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>shorts_comments_num</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>shorts_comments_time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>channel_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>shorts_thumbnail</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -100,40 +49,94 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -421,58 +424,436 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="7" width="16.796875" customWidth="1"/>
-    <col min="8" max="8" width="23.3984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="16.796875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>channel_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>shorts_url</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>shorts_title</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>shorts_description</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>shorts_thumbnail</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>shorts_view</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>shorts_likes</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>shorts_comments_num</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>shorts_comments_time</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>shorts_published_date</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>check_date</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Marc Brunet</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=Qc6NO19u3MM</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>👨‍🎨 Serious about your art? Check out my ART School program here! ➡️ cgart.school (or link in bio)</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://support.google.com/youtube/answer/3037019#zippy=%2Ccheck-that-youre-signed-into-youtube</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>121,372</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>17000</v>
+      </c>
+      <c r="H2" t="n">
+        <v>94</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" s="2" t="n">
+        <v>45589.90590802122</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Jen_ny69</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=ixq_pOK7jk0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Watch full video on ‪@adayinthelifeofa69‬</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://support.google.com/youtube/answer/3037019#zippy=%2Ccheck-that-youre-signed-into-youtube</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6,270</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>328</v>
+      </c>
+      <c r="H3" t="n">
+        <v>13</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" s="2" t="n">
+        <v>45589.90590802122</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>DawateIslami</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=JhocFEigq3k</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kabhi Ye Bhi Try Karen | #dawateislami #whatsappstatus #telethon #islamiccharity #bayanstatus \n\nJoin the Cause! Your Generosity Can Make a Difference – Donate Today at Our Telethon!\nUAN # 021 111 113 473\nWhatsApp # 03 111 111 226\nDonate Now:\nhttps://www.dawateislami.net/onlinedo...\n#Telethon3Nov\n#DawateislamiTelethon\n\nCOPYRIGHTS RESERVED BY Dawat-e-Islami\n\nFollow us on Social Media: \n\n► Join Us On Facebook:\n  / dawateislami.net  \n\n► Subscribe Dawat-e-Islami's Official YouTube Channel:\n   / @dawateislami  \n\n► Follow us on Twitter:\nhttps://x.com/MADANIinfo\n\n► Follow on Instagram:\n  / dawateislam  </t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://support.google.com/youtube/answer/3037019#zippy=%2Ccheck-that-youre-signed-into-youtube</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>926</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>229</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" s="2" t="n">
+        <v>45589.90590802122</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Go Natural English with Gabby Wallace</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=v9dcf7OF1Wg</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://support.google.com/youtube/answer/3037019#zippy=%2Ccheck-that-youre-signed-into-youtube</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3,897</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>72</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" s="2" t="n">
+        <v>45589.90590802122</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ReligionForBreakfast</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=WZn6dF9C1NQ</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://support.google.com/youtube/answer/3037019#zippy=%2Ccheck-that-youre-signed-into-youtube</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>82,627</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>4700</v>
+      </c>
+      <c r="H6" t="n">
+        <v>206</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" s="2" t="n">
+        <v>45589.90590802122</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Medicosis Perfectionalis</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=wFVlzZUWFcw</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>https://support.google.com/youtube/answer/3037019#zippy=%2Ccheck-that-youre-signed-into-youtube</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2,977</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>284</v>
+      </c>
+      <c r="H7" t="n">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" s="2" t="n">
+        <v>45589.90590802122</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>理科太太 Li Ke Tai Tai</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=E1789fuBkkU</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>貓咪個性這麼差，原來都是基因決定的！</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>https://rr3---sn-vgqsrnsr.googlevideo.com/videoplayback?expire=1729795493\u0026ei=RUEaZ4bwA9ijlu8P0YPk0Q8\u0026ip=109.121.40.7\u0026id=o-AN4g-UD0h2UxQRyKNINNY7tTownovj-xCztRKcylTZOv\u0026itag=18\u0026source=youtube\u0026requiressl=yes\u0026xpc=EgVo2aDSNQ%3D%3D\u0026met=1729773893%2C\u0026mh=NB\u0026mm=31%2C29\u0026mn=sn-vgqsrnsr%2Csn-vgqsknze\u0026ms=au%2Crdu\u0026mv=u\u0026mvi=3\u0026pl=24\u0026rms=au%2Cau\u0026bui=AXLXGFTQuTCmAdRYUykqKCt8M5xY0FBSB18gB3-ulcEq6Yy1fOdbocNhKWR833ZxQLuAzvH9TqbqUf0g\u0026spc=54MbxebnlHrjXAAW578iPCXkhvWIjQdcbyLTAisLS52OcZ7wfTCXzGdbUs350hE\u0026vprv=1\u0026svpuc=1\u0026mime=video%2Fmp4\u0026ns=PHlJtvMFgu_H_WM72L_Kw8QQ\u0026rqh=1\u0026gir=yes\u0026clen=2152144\u0026ratebypass=yes\u0026dur=28.885\u0026lmt=1705556810718508\u0026mt=1729773546\u0026fvip=1\u0026fexp=51312688%2C51326932\u0026c=WEB\u0026sefc=1\u0026txp=6300224\u0026n=0xw_ff1OipM-4u4_u\u0026sparams=expire%2Cei%2Cip%2Cid%2Citag%2Csource%2Crequiressl%2Cxpc%2Cbui%2Cspc%2Cvprv%2Csvpuc%2Cmime%2Cns%2Crqh%2Cgir%2Cclen%2Cratebypass%2Cdur%2Clmt\u0026sig=AJfQdSswRQIhAOV5QDzjUKS3BO1ymXH8eK4ehK4K2IsirXsl5K76FWP-AiAgOByar6yGsIHSpSVpPskQWfIvUMW6ZZq2VqxO_UPRPQ%3D%3D\u0026lsparams=met%2Cmh%2Cmm%2Cmn%2Cms%2Cmv%2Cmvi%2Cpl%2Crms\u0026lsig=ACJ0pHgwRAIgREknLlJsOjecYsKcb4kox8OG5nLE2htXOmUDguo8iNMCIGZJvanvrG2Yyt4eyIObO6oa_7fkb4cxYET2TTfNLXr3</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>15,447</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>327</v>
+      </c>
+      <c r="H8" t="n">
+        <v>12</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>2024-01-17 22</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="n">
+        <v>45589.90590802122</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Brian Tracy</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=C6HaBSkA6xU</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Shift Your Mindset</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Imagine the possibilities if failure weren’t a factor—how bold would your dreams be? Often, we hold back due to fear, but envisioning a life free from this constraint can reveal passions we’ve sidelined. 💭⁠\n⁠\nThis mindset inspires us to think big, whether it’s starting a business, pursuing a creative project, or making a significant life change. It helps us identify what truly matters and motivates us to take actionable steps toward our dreams.⁠\n⁠\nSo, what dreams are calling you, and what steps can you take today to make them a reality?⁠\n\nCheck out this 14-Step Goal Setting Guide to help set, pursue, and achieve your goals: https://bit.ly/4bbccaa\n⁠\n🎥: @hustlewithlana ⁠on Instagram\n\n#briantracy #success #motivation #goals #inspiration #stayinspired #successtips #motivated #successful \n\n___________________\n\nLearn more: \n\nSubscribe to my channel for free offers, tips and more!\nYouTube: http://ow.ly/ScHSb\nFacebook:   / briantracypage  \nTwitter:   / briantracy  \nGoogle+: +BrianTracyOfficialPage\nPinterest:   / briantracy  \nInstagram: @TheBrianTracy\nBlog: http://bit.ly/1rc4hlg</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>https://i.ytimg.com/vi/C6HaBSkA6xU/hq2.jpg?sqp=-oaymwE8CKgBEF5IWvKriqkDLwgBFQAAAAAYACUAAMhCPQCAokN4AfABAfgBzgWAAoAKigIMCAAQARhlIFgoXDAP\u0026rs=AOn4CLD5suD3-yNVsJCDfutb2O7tmwbTcQ</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4,477</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>562</v>
+      </c>
+      <c r="H9" t="n">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>3</v>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>2024-10-23 09</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="n">
+        <v>45589.90590802122</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Now You See It</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=g6lcT4EhNzM</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>The Best Steven Spielberg Interview Question Ever #shorts #film #movies #stevenspielberg</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Movies: The Fablemans (2022) and Close Encounters of the Third Kind (1977)\nFrom James Lipton - Inside Actor's Studio Episode #5.9\nFull interview: https://www.dailymotion.com/video/xjqe5\nOriginal interview source:    • Best Interview Question Ever - Steven...  \n\n#shorts #film #movies #stevenspielberg</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>https://rr1---sn-f58xn2xxq-aj5l.googlevideo.com/videoplayback?expire=1729795501\u0026ei=TUEaZ_CCL8zYxN8P7uub-QM\u0026ip=103.80.10.244\u0026id=o-AMxyITgrENRuzdK3vFcXUvlcAWFyxr8xCIiHcWy2y-o8\u0026itag=18\u0026source=youtube\u0026requiressl=yes\u0026xpc=EgVo2aDSNQ%3D%3D\u0026met=1729773901%2C\u0026mh=R1\u0026mm=31%2C29\u0026mn=sn-f58xn2xxq-aj5l%2Csn-hgn7rnll\u0026ms=au%2Crdu\u0026mv=m\u0026mvi=1\u0026pl=23\u0026rms=au%2Cau\u0026initcwndbps=726250\u0026bui=AXLXGFS7xAEJOiLKutq64K3bZQWf9UoJTNjcJsvSA_3AWPKOlhtPzrWDrhqvqbB9U2TDGUsG0b0CnCxl\u0026spc=54MbxXWt4SFAFdKtsxlIFAxFkK9COVXbcyKLoYddn9HiiW5PpQ3j-5gxSaNAeag\u0026vprv=1\u0026svpuc=1\u0026mime=video%2Fmp4\u0026ns=2R4tKpU6XPQyfyV0rSeyfuUQ\u0026rqh=1\u0026cnr=14\u0026ratebypass=yes\u0026dur=34.295\u0026lmt=1697215605722644\u0026mt=1729773425\u0026fvip=2\u0026fexp=51312688%2C51326932\u0026c=WEB\u0026sefc=1\u0026txp=6300224\u0026n=JGQvov2CO1KLUy2na\u0026sparams=expire%2Cei%2Cip%2Cid%2Citag%2Csource%2Crequiressl%2Cxpc%2Cbui%2Cspc%2Cvprv%2Csvpuc%2Cmime%2Cns%2Crqh%2Ccnr%2Cratebypass%2Cdur%2Clmt\u0026sig=AJfQdSswRQIhAJs69RFTZMgV8gBzbCgwAaoK1k45-PWdcUx3v6nTCu1kAiBXeas8FQOmnV5TPilUsVIfDXSqlM0rxHqzwJM7NxqErQ%3D%3D\u0026lsparams=met%2Cmh%2Cmm%2Cmn%2Cms%2Cmv%2Cmvi%2Cpl%2Crms%2Cinitcwndbps\u0026lsig=ACJ0pHgwRQIhAJOhIdJMwnL2Rct_ylZx9ZN0IIiv2-dllbpyBTikSMzrAiAGXor-DVi41qts9NtbxSzKCVhsbMEO7jVw1eQZMClc2w%3D%3D</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>47,959</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>2400</v>
+      </c>
+      <c r="H10" t="n">
+        <v>32</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>2023-01-07 09</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="n">
+        <v>45589.90590802122</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
--- a/YouTube_Shorts_Automation/youtube_shorts_crawling/scraperAPI/loaded_db.xlsx
+++ b/YouTube_Shorts_Automation/youtube_shorts_crawling/scraperAPI/loaded_db.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K443"/>
+  <dimension ref="A1:K548"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18734,6 +18734,4261 @@
         </is>
       </c>
     </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>Everyday Astronaut</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=Hlj_PkYvfnc</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr"/>
+      <c r="D444" t="inlineStr"/>
+      <c r="E444" t="inlineStr"/>
+      <c r="F444" t="inlineStr">
+        <is>
+          <t>652,959</t>
+        </is>
+      </c>
+      <c r="G444" t="n">
+        <v>35000</v>
+      </c>
+      <c r="H444" t="n">
+        <v>949</v>
+      </c>
+      <c r="I444" t="inlineStr"/>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>BizanIQ</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=NgHEba7SFKY</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>Hippo attacked by Birds?</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr"/>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t>https://i.ytimg.com/vi/NgHEba7SFKY/maxres2.jpg?sqp=-oaymwEoCIAKENAF8quKqQMcGADwAQH4AbYIgAKAD4oCDAgAEAEYZSBlKGUwDw==&amp;amp;rs=AOn4CLBsdb9puAc8v45ZiXlcaNlGKWlTfw</t>
+        </is>
+      </c>
+      <c r="F445" t="inlineStr">
+        <is>
+          <t>18,055</t>
+        </is>
+      </c>
+      <c r="G445" t="n">
+        <v>555</v>
+      </c>
+      <c r="H445" t="n">
+        <v>5</v>
+      </c>
+      <c r="I445" t="inlineStr"/>
+      <c r="J445" t="inlineStr">
+        <is>
+          <t>2024-10-02 10</t>
+        </is>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>Mr. Leaf Area</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=G4yvXufpBZ8</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>Many fish got in snow-hole😨</t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>Many fish got in snow-hole😨</t>
+        </is>
+      </c>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t>https://i.ytimg.com/vi/G4yvXufpBZ8/maxres2.jpg?sqp=-oaymwEoCIAKENAF8quKqQMcGADwAQH4AbYIgAKAD4oCDAgAEAEYUSBaKGUwDw==&amp;amp;rs=AOn4CLAFDMH5DpdIcmzUDUkVaFMUdkxjsQ</t>
+        </is>
+      </c>
+      <c r="F446" t="inlineStr">
+        <is>
+          <t>12,656</t>
+        </is>
+      </c>
+      <c r="G446" t="inlineStr"/>
+      <c r="H446" t="n">
+        <v>3</v>
+      </c>
+      <c r="I446" t="inlineStr"/>
+      <c r="J446" t="inlineStr">
+        <is>
+          <t>2024-11-08 15</t>
+        </is>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>AuthenTech - Ben Schmanke</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=qVFClrDXMPk</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr"/>
+      <c r="D447" t="inlineStr"/>
+      <c r="E447" t="inlineStr"/>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t>1,661</t>
+        </is>
+      </c>
+      <c r="G447" t="n">
+        <v>49</v>
+      </c>
+      <c r="H447" t="n">
+        <v>10</v>
+      </c>
+      <c r="I447" t="inlineStr"/>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>Google Workspace</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=pLShLbiZ0uY</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>Level up your productivity with Gemini for Google Workspace! 👀 #Shorts</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>Google Docs, Google Calendar, Google Drive, Google Chat, Google Meet, Gmail, Google Workspace, Gemini, How to, Google, Enterprise, Tutorials, Tips, yt:cc=on, cc_lang_pref=en,Want to see how it works for Laura Flick?\n\nTry Gemini for Workspace → https://goo.gle/4dADMNY\n\nWhat is Google Workspace → https://goo.gle/3Nb7HkT\nSet up Google Workspace → https://goo.gle/3ZMiiuf\n\nSubscribe to Google Workspace on YouTube → https://goo.gle/GoogleWorkspace\nFollow Google Workspace on X → https://goo.gle/4dADMNY\nFollow Google Workspace on Facebook → https://goo.gle/3ZRIGTt\nFollow Google Workspace on LinkedIn → https://goo.gle/4dAEPNU\nFollow Google Workspace on Instagram → https://goo.gle/4dOREV3\nFollow Google Workspace on TikTok → https://goo.gle/3zLCj9x\nFollow Google Workspace on Threads → https://goo.gle/3N8FD1I\n\n#GoogleWorkspace</t>
+        </is>
+      </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>https://i.ytimg.com/vi/pLShLbiZ0uY/maxres2.jpg?sqp=-oaymwEoCIAKENAF8quKqQMcGADwAQH4Ac4FgAKACooCDAgAEAEYZSBUKEYwDw==&amp;amp;rs=AOn4CLCi6-4KnknXjv_o7q80NViLCv5JFw</t>
+        </is>
+      </c>
+      <c r="F448" t="inlineStr">
+        <is>
+          <t>520</t>
+        </is>
+      </c>
+      <c r="G448" t="n">
+        <v>34</v>
+      </c>
+      <c r="H448" t="n">
+        <v>1</v>
+      </c>
+      <c r="I448" t="inlineStr"/>
+      <c r="J448" t="inlineStr">
+        <is>
+          <t>2024-11-08 05</t>
+        </is>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Earth Untamed </t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=CabH7pgSCFo</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>Ornate Eagle Ray, spotted globally fewer than 60 times… #piano #ray #sealife #animals</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr"/>
+      <c r="E449" t="inlineStr"/>
+      <c r="F449" t="inlineStr">
+        <is>
+          <t>1,531</t>
+        </is>
+      </c>
+      <c r="G449" t="n">
+        <v>68</v>
+      </c>
+      <c r="H449" t="n">
+        <v>6</v>
+      </c>
+      <c r="I449" t="inlineStr"/>
+      <c r="J449" t="inlineStr">
+        <is>
+          <t>2024-11-07 21</t>
+        </is>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>Spark Cycleworks</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=iu664kaoFbc</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>Brute assembly has been ongoing over at Spark!#brute #sparkcycleworks #ebike</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr"/>
+      <c r="E450" t="inlineStr"/>
+      <c r="F450" t="inlineStr">
+        <is>
+          <t>535</t>
+        </is>
+      </c>
+      <c r="G450" t="n">
+        <v>35</v>
+      </c>
+      <c r="H450" t="n">
+        <v>3</v>
+      </c>
+      <c r="I450" t="inlineStr"/>
+      <c r="J450" t="inlineStr">
+        <is>
+          <t>2024-11-07 08</t>
+        </is>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>Explore Infinity</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=auPl6hPvEjM</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr"/>
+      <c r="D451" t="inlineStr"/>
+      <c r="E451" t="inlineStr"/>
+      <c r="F451" t="inlineStr">
+        <is>
+          <t>1,231</t>
+        </is>
+      </c>
+      <c r="G451" t="n">
+        <v>45</v>
+      </c>
+      <c r="H451" t="n">
+        <v>1</v>
+      </c>
+      <c r="I451" t="inlineStr"/>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>Mech Fanatic</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=NMyQtM5bPe4</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>This is the fastest shoe in the world- Moonwalker#shorts #viralvideo</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr"/>
+      <c r="E452" t="inlineStr"/>
+      <c r="F452" t="inlineStr">
+        <is>
+          <t>10,649</t>
+        </is>
+      </c>
+      <c r="G452" t="n">
+        <v>217</v>
+      </c>
+      <c r="H452" t="n">
+        <v>1</v>
+      </c>
+      <c r="I452" t="inlineStr"/>
+      <c r="J452" t="inlineStr">
+        <is>
+          <t>2024-11-06 04</t>
+        </is>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>Action Lab Shorts</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=wZnPJuTz9UQ</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>Making Permanent Non-Coalescence</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t xml:space="preserve">See the full video here:\nNon-Coalescence—When Water Repels Itself\n   • Non-Coalescence—When Water Repels Itself  </t>
+        </is>
+      </c>
+      <c r="E453" t="inlineStr"/>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>111,046</t>
+        </is>
+      </c>
+      <c r="G453" t="n">
+        <v>9700</v>
+      </c>
+      <c r="H453" t="n">
+        <v>141</v>
+      </c>
+      <c r="I453" t="inlineStr"/>
+      <c r="J453" t="inlineStr">
+        <is>
+          <t>2024-11-07 11</t>
+        </is>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>PES LASER</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=l7PhRBvxcBo</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>2024 Handheld Laser Welding Machine Three Wire Feeder #laserweldingmachine</t>
+        </is>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>PES LASER\n\nTo learn more about the PESLASER line of laser welders, cleaners, markers and more, check them out here! https://www.peslaser.com/\n\nJoin this channel to get access to perks:\n   / @peslaser\n\nFollow us on Instagram ►   / https://www.instagram.com/peslaser/\n\nQuestions? Comments? Business inquiries? Email us at info@peslaser.com or Mob/WhatsApp:+8618856420577\n----------------------------------------------------------</t>
+        </is>
+      </c>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>https://i.ytimg.com/vi/l7PhRBvxcBo/maxres2.jpg?sqp=-oaymwEoCIAKENAF8quKqQMcGADwAQH4AbYIgALyDooCDAgAEAEYXiBeKF4wDw==&amp;amp;rs=AOn4CLD51HkTdak0O6IxqSshZHZnnhlgDA</t>
+        </is>
+      </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>966</t>
+        </is>
+      </c>
+      <c r="G454" t="n">
+        <v>21</v>
+      </c>
+      <c r="H454" t="inlineStr"/>
+      <c r="I454" t="inlineStr"/>
+      <c r="J454" t="inlineStr">
+        <is>
+          <t>2024-11-08 00</t>
+        </is>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>Lazy Programmer</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=djWOCAvX8ug</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>🤯 ChatGPT explains why Kamala Harris lost the 2024 presidential election #trump2024 #2024election</t>
+        </is>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>GET UP TO 90% OFF AI COURSES HERE: https://deeplearningcourses.com/?utm_...</t>
+        </is>
+      </c>
+      <c r="E455" t="inlineStr"/>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="G455" t="n">
+        <v>8</v>
+      </c>
+      <c r="H455" t="n">
+        <v>1</v>
+      </c>
+      <c r="I455" t="inlineStr"/>
+      <c r="J455" t="inlineStr">
+        <is>
+          <t>2024-11-06 13</t>
+        </is>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>Infinite Wisdom</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=IvV4IfxfNAs</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>Smart Gadgets、Gadget Pintar、Latest Gadgets、Popular products、Kitchen utensils、Household#shorts</t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr"/>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>https://i.ytimg.com/vi/IvV4IfxfNAs/maxres2.jpg?sqp=-oaymwEoCIAKENAF8quKqQMcGADwAQH4AbYIgAKAD4oCDAgAEAEYEyBXKH8wDw==&amp;amp;rs=AOn4CLC9r14UCNHTLRWCsGReA8c1W130bQ</t>
+        </is>
+      </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>89,615</t>
+        </is>
+      </c>
+      <c r="G456" t="n">
+        <v>3300</v>
+      </c>
+      <c r="H456" t="n">
+        <v>7</v>
+      </c>
+      <c r="I456" t="inlineStr"/>
+      <c r="J456" t="inlineStr">
+        <is>
+          <t>2023-08-07 06</t>
+        </is>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>Guns Collector</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=5Hpiu9sJglw</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr"/>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>#guns #callofduty #pistol #shooting #asmr #pubg #warzone #gun #weapons #firearms #army #specialforces #military #battlefield #sniper #soldier #viral #hitman #soldiers #short #ww2 #compilation #whichwouldyouchoose #german #soviet #polish #pubgmobile #review #vs #germany #sovietunion #airsoft</t>
+        </is>
+      </c>
+      <c r="E457" t="inlineStr"/>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>29,013</t>
+        </is>
+      </c>
+      <c r="G457" t="n">
+        <v>2000</v>
+      </c>
+      <c r="H457" t="n">
+        <v>28</v>
+      </c>
+      <c r="I457" t="inlineStr"/>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>David's secret garden</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=7RAe2jiqoac</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>Today I had Northeastern iron pot stew with my friends. The pot stickers and flower rolls delicious</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr"/>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>https://i.ytimg.com/vi/7RAe2jiqoac/maxres2.jpg?sqp=-oaymwEoCIAKENAF8quKqQMcGADwAQH4AbYIgAKAD4oCDAgAEAEYciBTKD0wDw==&amp;amp;rs=AOn4CLDyuTlieCQ79mk0jrREqk5pvygnPQ</t>
+        </is>
+      </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>1,145</t>
+        </is>
+      </c>
+      <c r="G458" t="inlineStr"/>
+      <c r="H458" t="n">
+        <v>1</v>
+      </c>
+      <c r="I458" t="inlineStr"/>
+      <c r="J458" t="inlineStr">
+        <is>
+          <t>2024-11-08 03</t>
+        </is>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>Dwarkesh Patel</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=VdRW6WcTlpE</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr"/>
+      <c r="D459" t="inlineStr"/>
+      <c r="E459" t="inlineStr"/>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>794,983</t>
+        </is>
+      </c>
+      <c r="G459" t="n">
+        <v>22000</v>
+      </c>
+      <c r="H459" t="n">
+        <v>935</v>
+      </c>
+      <c r="I459" t="inlineStr"/>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>Historia Absoluta</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=TVcC3BrjMwo</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>¿Cómo Se Hacen Las Perlas Cultivadas? 🤔</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>🌟 ¿Te has preguntado cómo se crean las perlas cultivadas? 🐚✨ ¡Descubre el fascinante proceso detrás de estas joyas! \n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n #Perlas #Ostras #Cultivadas #Joyas #Curiosidades #HechoAMano #Naturaleza #Arte #Cultura #Aprender 🎥👀</t>
+        </is>
+      </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>https://i.ytimg.com/vi/TVcC3BrjMwo/maxres2.jpg?sqp=-oaymwEoCIAKENAF8quKqQMcGADwAQH4AbYIgAKAD4oCDAgAEAEYciBTKDkwDw==&amp;amp;rs=AOn4CLCOtNFVWksNySysqXsBEgFd-E2V0g</t>
+        </is>
+      </c>
+      <c r="F460" t="inlineStr">
+        <is>
+          <t>1,226</t>
+        </is>
+      </c>
+      <c r="G460" t="n">
+        <v>95</v>
+      </c>
+      <c r="H460" t="n">
+        <v>1</v>
+      </c>
+      <c r="I460" t="inlineStr"/>
+      <c r="J460" t="inlineStr">
+        <is>
+          <t>2024-11-08 13</t>
+        </is>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>FutureFlicks</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=ymLecQ2nvQ0</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr"/>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>#2</t>
+        </is>
+      </c>
+      <c r="E461" t="inlineStr"/>
+      <c r="F461" t="inlineStr">
+        <is>
+          <t>3,919</t>
+        </is>
+      </c>
+      <c r="G461" t="n">
+        <v>486</v>
+      </c>
+      <c r="H461" t="n">
+        <v>11</v>
+      </c>
+      <c r="I461" t="inlineStr"/>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>Outer Space News</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=ZbMwbhk4KZs</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>C-17 Globemaster Extremely powerful performance #usairforce</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>@OuterSpaceNews - C-17 Globemaster Extremely powerful performance\n\n#usairforce \n#c17aircraft \n#c17globemaster \n\nYouTube |    / @outerspacenews  \nFacebook |  https://bit.ly/3tB18gQ</t>
+        </is>
+      </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>https://i.ytimg.com/vi/ZbMwbhk4KZs/maxres2.jpg?sqp=-oaymwEoCIAKENAF8quKqQMcGADwAQH4AbYIgAKAD4oCDAgAEAEYTCBcKGUwDw==&amp;amp;rs=AOn4CLCHcmedigJ_5HrfykQmzeqDpjX87w</t>
+        </is>
+      </c>
+      <c r="F462" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="G462" t="n">
+        <v>27</v>
+      </c>
+      <c r="H462" t="inlineStr"/>
+      <c r="I462" t="inlineStr"/>
+      <c r="J462" t="inlineStr">
+        <is>
+          <t>2024-11-08 12</t>
+        </is>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>Mouse Trap 2</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=cfALWNgiE8o</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>Look at which hamster is so lucky! #animals #mouse</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>Look at which hamster is so lucky! #animals #mouse</t>
+        </is>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>https://i.ytimg.com/vi/cfALWNgiE8o/maxres2.jpg?sqp=-oaymwEoCIAKENAF8quKqQMcGADwAQH4AbYIgAKAD4oCDAgAEAEYciBAKDYwDw==&amp;amp;rs=AOn4CLDhaTsnSMX54bAkusb6AcglaiNwQA</t>
+        </is>
+      </c>
+      <c r="F463" t="inlineStr">
+        <is>
+          <t>1,125</t>
+        </is>
+      </c>
+      <c r="G463" t="n">
+        <v>26</v>
+      </c>
+      <c r="H463" t="inlineStr"/>
+      <c r="I463" t="inlineStr"/>
+      <c r="J463" t="inlineStr">
+        <is>
+          <t>2024-11-08 01</t>
+        </is>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>9To5 Factory</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=rUtnihdZ56M</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr"/>
+      <c r="D464" t="inlineStr"/>
+      <c r="E464" t="inlineStr"/>
+      <c r="F464" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="G464" t="n">
+        <v>3</v>
+      </c>
+      <c r="H464" t="inlineStr"/>
+      <c r="I464" t="inlineStr"/>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>거창한 청년</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=D39rcQlQIEo</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>수입산 호두에서 냄새나는 이유</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>#shorts #호두 #walnut #견과류 #무농약 \n\n수입 깐호두는 몇 년 지난 호두가 들어오기 때문에 냄새가 납니다. 반면 국산 호두는 햇호두를 판매하기 때문에 냄새가 나지 않습니다.</t>
+        </is>
+      </c>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>https://i.ytimg.com/vi/D39rcQlQIEo/maxres2.jpg?sqp=-oaymwEoCIAKENAF8quKqQMcGADwAQH4AbYIgAKAD4oCDAgAEAEYVyBlKDUwDw==&amp;amp;rs=AOn4CLC4Vyt7E0jV6KmZ3OB9ZdZ-C1rSjg</t>
+        </is>
+      </c>
+      <c r="F465" t="inlineStr">
+        <is>
+          <t>1,798</t>
+        </is>
+      </c>
+      <c r="G465" t="n">
+        <v>105</v>
+      </c>
+      <c r="H465" t="n">
+        <v>21</v>
+      </c>
+      <c r="I465" t="inlineStr"/>
+      <c r="J465" t="inlineStr">
+        <is>
+          <t>2024-11-07 23</t>
+        </is>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>Aran TV</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=ANMPDCRxhTU</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr"/>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>그냥 놀려고 만났는데 우리의 패션을 보니\n뭐라도 안 찍을 수가 없는 거예요!!!?!?\n(반짝이고 깃털 달린 거 참 좋아해..🤣)\nㅋㅋㅋㅋㅋㅋㅋㅋ\n\n그래서 즉흥으로 만들어 본 영상 어때요!?\n✨ 에듀테이닝한 콘텐츠는 로라 x 아란 ♥️\n\n-\n\n🔳stockings: 반스타킹 (크리스마스 스타킹이 대표적이에요! 우리 인식에는 크리스마스 양말이지만, 목이 워낙 긴 양말이라 미국에서는 반스타킹으로 인식한달까요? 또, 팬티스타킹 말고 무릎이나 허벅지까지만 오는 스타킹도 반스타킹으로 쳐서 stockings라고 해요~)\n\n🔳tights: 스타킹 (팬티스타킹)\n\n🔳jumpstuit: 긴바지와 상의 일체형 의류\n\n🔳romper: 반바지와 상의 일체형 의류\n\n🔳one piece: 한 덩이 (주로 일체형 물건을 칭할 때 써요! 원피스도 여러 개로 나눠진 옷이 아니라 한 덩이의 옷이기 때문에 one-piece clothing이기는 하지만, 점프수트도 롬퍼도 원피스수영복도 모두 일체형이기에 one-piece에 포함되죠~) \n\n🔳dress: 원피스 (상의와 치마 일체형 의류)\n\n.\n.\n\n🌏인스타그램: @aranenglish\n🌍영어 수업 신청: www.aran.kim\n🌏영어 수업 문의: 카카오톡 '아란티비'\n\n\n⋆✧——✧ ⋆ ✧ -ˋˏ ♡ ˎˊ ✧ ⋆ ✧——⋆✧\n\n\n인연 맺어요 STAY CONNECTED\n\n.:｡✧* email: aranenglish @ naver . com\n\n\n⋆✧——✧ ⋆ ✧ -ˋˏ ♡ ˎˊ ✧ ⋆ ✧——⋆✧\n\n\n1년 만에 교포로 오해받은 김아란의 영어 정복기 MY BOOK\n\n.:｡✧* 외국어 부문 Bestseller 7주 연속 1위\n.:｡✧* eBook ✦ 해외배송 가능! 📖✈️\n.:｡✧* https://bit.ly/2sdQhhc \n\n\n⋆✧——✧ ⋆ ✧ -ˋˏ ♡ ˎˊ ✧ ⋆ ✧——⋆✧</t>
+        </is>
+      </c>
+      <c r="E466" t="inlineStr"/>
+      <c r="F466" t="inlineStr">
+        <is>
+          <t>22,482</t>
+        </is>
+      </c>
+      <c r="G466" t="n">
+        <v>707</v>
+      </c>
+      <c r="H466" t="n">
+        <v>20</v>
+      </c>
+      <c r="I466" t="inlineStr"/>
+      <c r="J466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>힐링명언</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=D_Qd64QglZM</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr"/>
+      <c r="D467" t="inlineStr"/>
+      <c r="E467" t="inlineStr"/>
+      <c r="F467" t="inlineStr"/>
+      <c r="G467" t="inlineStr"/>
+      <c r="H467" t="inlineStr"/>
+      <c r="I467" t="inlineStr"/>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>자네가주임원사인가</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=tIhAToBqg78</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr"/>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>#군대 #밀리터리 #해군 #특수부대 #ssu</t>
+        </is>
+      </c>
+      <c r="E468" t="inlineStr"/>
+      <c r="F468" t="inlineStr">
+        <is>
+          <t>55,009</t>
+        </is>
+      </c>
+      <c r="G468" t="n">
+        <v>746</v>
+      </c>
+      <c r="H468" t="n">
+        <v>32</v>
+      </c>
+      <c r="I468" t="inlineStr"/>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>비급칼잡이(BladeMan B)</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=pMdnACaCG80</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>조선의 두개의 칼을 쓰는 검법 #조선검술</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>넷플릭스 킹덤의 무예/전술 자문 최형국 박사님을 다시 만났습니다!\n무예도보통지 쌍검부터 제독검, 그리고 넷플릭스 전,란리뷰까지\n풍성한 컨텐츠의 조선검술 특집 끝까지 시청해주세요!\n\n§. 비급칼잡이 인스타 / instagram.com/blademan_b\n\n채널 멤버십 가입해서 온라인 검술 배워보기\n   / @blademan_b  \n\n#조선검술 #킹덤 #일본검술 #조선무예</t>
+        </is>
+      </c>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>https://i.ytimg.com/vi/pMdnACaCG80/maxres2.jpg?sqp=-oaymwEoCIAKENAF8quKqQMcGADwAQH4AbYIgAKAD4oCDAgAEAEYZSBfKE8wDw==&amp;amp;rs=AOn4CLCci4TjwxRDFZeBdQ9IPgnOxP8VaQ</t>
+        </is>
+      </c>
+      <c r="F469" t="inlineStr">
+        <is>
+          <t>2,956</t>
+        </is>
+      </c>
+      <c r="G469" t="n">
+        <v>117</v>
+      </c>
+      <c r="H469" t="n">
+        <v>6</v>
+      </c>
+      <c r="I469" t="inlineStr"/>
+      <c r="J469" t="inlineStr">
+        <is>
+          <t>2024-11-06 18</t>
+        </is>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>[삼성증권] Samsung POP</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=1uVHTSLyo6E</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>아파트 게임! 재미가 POP! POP! 당신의 주식은 몇 층? #삼성증권 #로제 #브루노마스 #아파트 #APT #주식 #물려있다</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr"/>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>https://i.ytimg.com/vi/1uVHTSLyo6E/maxres2.jpg?sqp=-oaymwEoCIAKENAF8quKqQMcGADwAQH4AbYIgAKUDIoCDAgAEAEYfyAhKEMwDw==&amp;amp;rs=AOn4CLDRP2vhHuLWJhF9pvqbLxTztDplmA</t>
+        </is>
+      </c>
+      <c r="F470" t="inlineStr">
+        <is>
+          <t>49,865</t>
+        </is>
+      </c>
+      <c r="G470" t="n">
+        <v>8</v>
+      </c>
+      <c r="H470" t="n">
+        <v>7</v>
+      </c>
+      <c r="I470" t="inlineStr"/>
+      <c r="J470" t="inlineStr">
+        <is>
+          <t>2024-11-07 22</t>
+        </is>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>미미미누</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=oc3vACj4l3M</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr"/>
+      <c r="D471" t="inlineStr"/>
+      <c r="E471" t="inlineStr"/>
+      <c r="F471" t="inlineStr">
+        <is>
+          <t>10,944</t>
+        </is>
+      </c>
+      <c r="G471" t="n">
+        <v>209</v>
+      </c>
+      <c r="H471" t="n">
+        <v>10</v>
+      </c>
+      <c r="I471" t="inlineStr"/>
+      <c r="J471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>뭐알남 - 뭐든지 알려주는 남자</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=aI1GCFYMKws</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>미국인들이 가장 싫어하는 나라 BEST 14</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr"/>
+      <c r="E472" t="inlineStr"/>
+      <c r="F472" t="inlineStr">
+        <is>
+          <t>2,481</t>
+        </is>
+      </c>
+      <c r="G472" t="inlineStr"/>
+      <c r="H472" t="n">
+        <v>1</v>
+      </c>
+      <c r="I472" t="inlineStr"/>
+      <c r="J472" t="inlineStr">
+        <is>
+          <t>2024-11-08 09</t>
+        </is>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>title TV</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=_LZI_UmHw0I</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr"/>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>역시 #케라라케</t>
+        </is>
+      </c>
+      <c r="E473" t="inlineStr"/>
+      <c r="F473" t="inlineStr">
+        <is>
+          <t>391,720</t>
+        </is>
+      </c>
+      <c r="G473" t="n">
+        <v>6000</v>
+      </c>
+      <c r="H473" t="n">
+        <v>77</v>
+      </c>
+      <c r="I473" t="inlineStr"/>
+      <c r="J473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>사냥꾼 소년</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=eWqZvnNvmUQ</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>【膝付鼻括り】膝を落とし、イノシシの突進で鼻括り成功。【狩猟】　#wildboar  #くくり罠  #イノシシ</t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>鼻括りを伸ばし、イノシシを突進を完璧に受け止めました。\n\n\nこの動画は、決して悪意をもってイノシシを攻撃する意図はありません。\n\n伝統的な狩猟技術と文化を継承するために発信しています。\n怪我なく、安全に捕獲するために保定具を用いるようにしています。\n\n保定具を用い安全な狩猟を目指しています。</t>
+        </is>
+      </c>
+      <c r="E474" t="inlineStr"/>
+      <c r="F474" t="inlineStr">
+        <is>
+          <t>33,368</t>
+        </is>
+      </c>
+      <c r="G474" t="n">
+        <v>147</v>
+      </c>
+      <c r="H474" t="inlineStr"/>
+      <c r="I474" t="inlineStr"/>
+      <c r="J474" t="inlineStr">
+        <is>
+          <t>2024-11-01 18</t>
+        </is>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>하스텔 l 오일파스텔 그림</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=2zQfA_ve1Ow</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>오일 파스텔을 부숴서 쓰면 좋은 이유 (2)</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>오일파스텔 #그림 #드로잉\n오일파스텔을 부숴서 쓰는 걸 좋아해 주셔서\n케이크를 한번 표현해 봤어요!\n저 채는 10년도 더 된 파스텔채 인데요\n그냥 파스텔은 잘 갈리는데\n오일 파스텔은 갈기 쉽지 않더라구요\n이 방법으로 티라미수 케이크를 그리고 싶었는데\n빨리 포기하고 그냥 케이크로 그렸습니다\n따라해 볼 수 있는 더 자세한 과정 영상도\n나중에 만들어 볼게요~!\n\n■그림에 사용한 재료 및 도구\n문교 소프트 오일파스텔\n지에소 오일파스텔\n파펠시노 스케치북\n마스킹테이프\n페인팅 나이프\n파스텔채\n연필, 지우개 (스케치)\n\n📷 Instagram : https://www.instagram.com/oil_hastel?...\n💌 𝗲.𝗺𝗮𝗶𝗹 : oilhastel@gmail.com</t>
+        </is>
+      </c>
+      <c r="E475" t="inlineStr"/>
+      <c r="F475" t="inlineStr">
+        <is>
+          <t>4,524</t>
+        </is>
+      </c>
+      <c r="G475" t="inlineStr"/>
+      <c r="H475" t="n">
+        <v>4</v>
+      </c>
+      <c r="I475" t="inlineStr"/>
+      <c r="J475" t="inlineStr">
+        <is>
+          <t>2024-11-07 02</t>
+        </is>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>PKD IS EVERYWHERE</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=v9mP0HGXJNA</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr"/>
+      <c r="D476" t="inlineStr"/>
+      <c r="E476" t="inlineStr"/>
+      <c r="F476" t="inlineStr">
+        <is>
+          <t>4,562</t>
+        </is>
+      </c>
+      <c r="G476" t="n">
+        <v>66</v>
+      </c>
+      <c r="H476" t="inlineStr"/>
+      <c r="I476" t="inlineStr"/>
+      <c r="J476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>솔바위농원</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=iMTiAQ8wgBQ</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr"/>
+      <c r="D477" t="inlineStr"/>
+      <c r="E477" t="inlineStr"/>
+      <c r="F477" t="inlineStr">
+        <is>
+          <t>3,040</t>
+        </is>
+      </c>
+      <c r="G477" t="n">
+        <v>68</v>
+      </c>
+      <c r="H477" t="n">
+        <v>2</v>
+      </c>
+      <c r="I477" t="inlineStr"/>
+      <c r="J477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t xml:space="preserve">북클랜드 - 인기 동요・재밌는 놀이 </t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=1QjHJmmeq3g</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>Halloween Doremi Challenge | Happy Halloween | Vampire Witch Ghost Pirate Alien</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>🧸Subscribe to Bookcland and enjoy the best kids' content every week!\n   / @bookcland  \n\n#shorts #doremichallnge #kidsvideo #halloween #trickortreat #happyhalloween \nⓒ 2024 Woongjin Think Big, Co., Ltd. All Rights Reserved.</t>
+        </is>
+      </c>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t>https://i.ytimg.com/vi/1QjHJmmeq3g/maxres2.jpg?sqp=-oaymwEoCIAKENAF8quKqQMcGADwAQH4AbYIgAKAD4oCDAgAEAEYfyATKBMwDw==&amp;amp;rs=AOn4CLDilKeHmloCLwGuB49oqk2ZFl-Ysg</t>
+        </is>
+      </c>
+      <c r="F478" t="inlineStr">
+        <is>
+          <t>213,195</t>
+        </is>
+      </c>
+      <c r="G478" t="n">
+        <v>3400</v>
+      </c>
+      <c r="H478" t="inlineStr"/>
+      <c r="I478" t="inlineStr"/>
+      <c r="J478" t="inlineStr">
+        <is>
+          <t>2024-11-02 05</t>
+        </is>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>쉐리 SHERRY</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=J_PqGAgqqb4</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>100원으로 1억 버는 방법??? 아 나만 알고 싶었는데.. #11.11광군제 #알리광군제 #알리100원래플 #알리래플 #100원래플 #타임딜</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr"/>
+      <c r="E479" t="inlineStr"/>
+      <c r="F479" t="inlineStr">
+        <is>
+          <t>3,507</t>
+        </is>
+      </c>
+      <c r="G479" t="n">
+        <v>87</v>
+      </c>
+      <c r="H479" t="n">
+        <v>5</v>
+      </c>
+      <c r="I479" t="inlineStr"/>
+      <c r="J479" t="inlineStr">
+        <is>
+          <t>2024-11-08 00</t>
+        </is>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>알파TV - 신한투자증권 [공식 유튜브 채널]</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=SzuARpWp0sE</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr"/>
+      <c r="D480" t="inlineStr"/>
+      <c r="E480" t="inlineStr"/>
+      <c r="F480" t="inlineStr"/>
+      <c r="G480" t="inlineStr"/>
+      <c r="H480" t="inlineStr"/>
+      <c r="I480" t="inlineStr"/>
+      <c r="J480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>베이비버스 -인기 동요・동화</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=EQ8GZRLE8a8</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>알록달록 도넛을 삼켜요! #베이비버스 #색깔놀이 #shorts #learncolors</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>🐼베이비버스 구독하기:    / @babybusko  \n\n🐼동요\u0026동화 끝이 없이 즐기기! \n❤래브라도 경장! 한글 채널 : \n   / @래브라도경장    \n\n❤베이비버스 최신 인기 동요 : \n   / @babybusko  \n\n#베이비버스 #예스네오 #키즈 #어린이 #베이비버스동요 #동요 #율동 \n\n베이비버스(BabyBus)\n베이비버스는 아이들의 성장단계별 기초인지,지능발달,소통의사,창의력,예술감각,안전과 환경보호,자연과학,올바른 습관 등 영역의 내용을 엄선하여 어린이 눈높이에 맞게 다양한 주제로 제작된 유아교육용(다국어버전)콘텐츠를 전세계어린이 상대로 서비스를 하고 있습니다. 오늘도 베이비버스 채널과 즐거운 하루 되세요!\n\nCopyright ©BABYBUS CO.Ltd All Rights Reserved.</t>
+        </is>
+      </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>https://i.ytimg.com/vi/EQ8GZRLE8a8/maxres2.jpg?sqp=-oaymwEoCIAKENAF8quKqQMcGADwAQH4AbYIgAKAD4oCDAgAEAEYZSBbKEAwDw==&amp;amp;rs=AOn4CLCytkyzXjcgi1itu39itNZQfRmz3g</t>
+        </is>
+      </c>
+      <c r="F481" t="inlineStr">
+        <is>
+          <t>12,856</t>
+        </is>
+      </c>
+      <c r="G481" t="n">
+        <v>304</v>
+      </c>
+      <c r="H481" t="inlineStr"/>
+      <c r="I481" t="inlineStr"/>
+      <c r="J481" t="inlineStr">
+        <is>
+          <t>2024-11-05 17</t>
+        </is>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>Dreamcoach</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=GAw02FOED18</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>무조건 외워야 하는 인생조언!</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr"/>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>https://i.ytimg.com/vi/GAw02FOED18/maxres2.jpg?sqp=-oaymwEoCIAKENAF8quKqQMcGADwAQH4AbYIgAKAD4oCDAgAEAEYZSBlKGUwDw==&amp;amp;rs=AOn4CLC6Jh6U5EKYuQz4aEZxib3aCCwZfw</t>
+        </is>
+      </c>
+      <c r="F482" t="inlineStr">
+        <is>
+          <t>27,309</t>
+        </is>
+      </c>
+      <c r="G482" t="inlineStr"/>
+      <c r="H482" t="n">
+        <v>28</v>
+      </c>
+      <c r="I482" t="inlineStr"/>
+      <c r="J482" t="inlineStr">
+        <is>
+          <t>2024-11-07 15</t>
+        </is>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>LH 한국토지주택공사</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=E1mAPpdV43M</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>[LH 영크리에이터 10월 미션] 흑백 건축사한국토지주택공사</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>안녕하세요! LH 영크리에이터 3기의 ‘ZIP사들’입니다! \nLH에 거주자 특화형 주택이 있는 거 알고 계셨나요?\n누구에게나 주거 안전성을 보장해 주는 LH이지만,\n특별한 대상을 겨냥해서 그들의 니즈를 100% 충족하기도 한답니다!\n대표적으로는 청년 예술가를 위한 LH청년특화 매입임대주택이 있는데요,\n바로 아츠스테이입니다!\n특별한 타켓층을 선정한 만큼\nART에 관심이 있는 사람들이 STAY하며 그들의 삶에 꼭 맞는 공간으로 이루어진 \n주택입니다\nLH는 이 외에도 예술인 고령자 등 거주자에게 맞는 임대주택을 제공하는 섬세한 \n노력도 기울이고 있답니다!\n이러한 내용을 홍보하기 위해 이번에는 장안의 화제인 ‘흑백요리사’를 \n‘흑백건축사’로 패러디하여 특화형 매입임대주택을 홍보하고자 합니다!\n즐겁게 콘텐츠 시청해 주시고 자신에게 맞는 특화 주택도 찾아보기를 바랍니다!</t>
+        </is>
+      </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>https://i.ytimg.com/vi/E1mAPpdV43M/maxres2.jpg?sqp=-oaymwEoCIAKENAF8quKqQMcGADwAQH4AbYIgAKAD4oCDAgAEAEYZSBWKEwwDw==&amp;amp;rs=AOn4CLBPg2v2l9lnMAC4jjo-UEqf_nb34Q</t>
+        </is>
+      </c>
+      <c r="F483" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="G483" t="n">
+        <v>3</v>
+      </c>
+      <c r="H483" t="inlineStr"/>
+      <c r="I483" t="inlineStr"/>
+      <c r="J483" t="inlineStr">
+        <is>
+          <t>2024-11-04 01</t>
+        </is>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>장난귤</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=nbdAzW1P3JA</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr"/>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>입으로 부는 너프총 장난감인데 파괴력이?ㄷㄷㄷ</t>
+        </is>
+      </c>
+      <c r="E484" t="inlineStr"/>
+      <c r="F484" t="inlineStr">
+        <is>
+          <t>428</t>
+        </is>
+      </c>
+      <c r="G484" t="n">
+        <v>61</v>
+      </c>
+      <c r="H484" t="n">
+        <v>3</v>
+      </c>
+      <c r="I484" t="inlineStr"/>
+      <c r="J484" t="inlineStr"/>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>theMEGASTUDY</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=PI1KYPPwYOw</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>[메가스터디] 2026 메가패스 현장 영상 단독 입수!</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>⭐깜짝공개⭐\n2026 메가패스의 생생한 광고 촬영 현장을 공개합니다❤️\n지금 바로 확인 ㄱㄱ!\n\n높여봐 너의 공부성능, 2026 MEGAPASS!\n#메가스터디 #2026메가패스 #메가패스\n\nhttps://me2.do/56RmBwZQ\n\n－ 합격불변의 법칙 메가스터디 \nhttp://www.megastudy.net\nhttp://m.megastudy.net</t>
+        </is>
+      </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>https://i.ytimg.com/vi/PI1KYPPwYOw/maxres2.jpg?sqp=-oaymwEoCIAKENAF8quKqQMcGADwAQH4AbYIgAKAD4oCDAgAEAEYISAsKH8wDw==&amp;amp;rs=AOn4CLBiGIRWtwjbO0s1h2QCrsipx2yvww</t>
+        </is>
+      </c>
+      <c r="F485" t="inlineStr">
+        <is>
+          <t>29,403</t>
+        </is>
+      </c>
+      <c r="G485" t="n">
+        <v>780</v>
+      </c>
+      <c r="H485" t="n">
+        <v>39</v>
+      </c>
+      <c r="I485" t="inlineStr"/>
+      <c r="J485" t="inlineStr">
+        <is>
+          <t>2024-11-04 00</t>
+        </is>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>지이도</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=ZAkIkFEsROA</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr"/>
+      <c r="D486" t="inlineStr"/>
+      <c r="E486" t="inlineStr"/>
+      <c r="F486" t="inlineStr">
+        <is>
+          <t>186,433</t>
+        </is>
+      </c>
+      <c r="G486" t="n">
+        <v>4200</v>
+      </c>
+      <c r="H486" t="n">
+        <v>172</v>
+      </c>
+      <c r="I486" t="inlineStr"/>
+      <c r="J486" t="inlineStr"/>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>그랜드마스터클래스</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=Mxhv1OFb3yU</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>많이 뒤쳐진것 같다면 취해야할 전략 #정주영</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>DISCLAIMER\nThe copyright of the original video belongs to the original copyright holder.\nWe check the copyright permission through the YouTube system, and if it is not confirmed within the system\nThe purpose of this video is ONLY for the public good, such as education, motivation, or sharing of ideas with a wider public, and is not used for any additional purpose.\nIf you(copyright holder) request deletion, removal, correction, etc in any reasons caused by uploading the video, please contact us at  we will make corrections accordingly.\n\n#강연 #인터뷰 #동기부여 #자기계발 #명언 #강의 #성공 #명언</t>
+        </is>
+      </c>
+      <c r="E487" t="inlineStr"/>
+      <c r="F487" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="G487" t="n">
+        <v>49</v>
+      </c>
+      <c r="H487" t="n">
+        <v>3</v>
+      </c>
+      <c r="I487" t="inlineStr"/>
+      <c r="J487" t="inlineStr">
+        <is>
+          <t>2024-11-08 19</t>
+        </is>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>우가놀이 WOOGA play</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=kSUinfk5jRQ</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr"/>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>안녕하세요.\n우가놀이입니다. :D\n\n#alphabetSong\n#abcsong     \n#alphabet \n#shorts \n#우가놀이 \n#woogaplay \n#abcd \n\n재미있게 보셨다면  구독과 좋아요 눌러주세요, ~~^^\n시청해 주셔서 감사합니다. ~~💖💖💖\n\n🤞😍👍우가놀이 구독하기 : https://bit.ly/3nrb49N</t>
+        </is>
+      </c>
+      <c r="E488" t="inlineStr"/>
+      <c r="F488" t="inlineStr">
+        <is>
+          <t>62,092</t>
+        </is>
+      </c>
+      <c r="G488" t="inlineStr"/>
+      <c r="H488" t="inlineStr"/>
+      <c r="I488" t="inlineStr"/>
+      <c r="J488" t="inlineStr"/>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>귀멸의 칼날</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=Q9myMM3jsTE</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr"/>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>\</t>
+        </is>
+      </c>
+      <c r="E489" t="inlineStr"/>
+      <c r="F489" t="inlineStr">
+        <is>
+          <t>44,759</t>
+        </is>
+      </c>
+      <c r="G489" t="n">
+        <v>666</v>
+      </c>
+      <c r="H489" t="n">
+        <v>608</v>
+      </c>
+      <c r="I489" t="inlineStr"/>
+      <c r="J489" t="inlineStr"/>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>하나TV [하나증권]</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=VFpfUCufGT4</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>(11/4~11/10)일정체크! 일주일에!! 일분만!!!#미국 대통령 선거 #미국FOMC#BOE통화정책회의# MSCI 반기리뷰</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>#미국 대통령 선거 #미국FOMC#BOE통화정책회의# MSCI반기리뷰</t>
+        </is>
+      </c>
+      <c r="E490" t="inlineStr"/>
+      <c r="F490" t="inlineStr">
+        <is>
+          <t>777</t>
+        </is>
+      </c>
+      <c r="G490" t="n">
+        <v>45</v>
+      </c>
+      <c r="H490" t="inlineStr"/>
+      <c r="I490" t="inlineStr"/>
+      <c r="J490" t="inlineStr">
+        <is>
+          <t>2024-11-03 15</t>
+        </is>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>캐내네</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=MKHJrdaNJOE</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>탈북민이 술자리에서 놀랐던 순간 #shorts</t>
+        </is>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>#캐내네스피치 #혜윰달 #강연 #한수애 #옥토끼한수애 #탈북민 #북한이탈주민 #통일 #국방부 #국정원 #하나원 #탈북 #북한 #평양 #탈북민유튜버 #탈북스토리 #탈북자 #탈북녀 #한수애공연 #캄보디아 \n#탈북자 유튜버 #인천공항</t>
+        </is>
+      </c>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>https://i.ytimg.com/vi/MKHJrdaNJOE/maxres2.jpg?sqp=-oaymwEoCIAKENAF8quKqQMcGADwAQH4AbYIgAKAD4oCDAgAEAEYciBHKDgwDw==&amp;amp;rs=AOn4CLBaRdo4wPlogJSrXEqasXxzWEmOUQ</t>
+        </is>
+      </c>
+      <c r="F491" t="inlineStr">
+        <is>
+          <t>895</t>
+        </is>
+      </c>
+      <c r="G491" t="n">
+        <v>25</v>
+      </c>
+      <c r="H491" t="n">
+        <v>2</v>
+      </c>
+      <c r="I491" t="inlineStr"/>
+      <c r="J491" t="inlineStr">
+        <is>
+          <t>2024-11-08 06</t>
+        </is>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>김영사</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=zwdnlgM4hiw</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr"/>
+      <c r="D492" t="inlineStr"/>
+      <c r="E492" t="inlineStr"/>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>607</t>
+        </is>
+      </c>
+      <c r="G492" t="n">
+        <v>9</v>
+      </c>
+      <c r="H492" t="inlineStr"/>
+      <c r="I492" t="inlineStr"/>
+      <c r="J492" t="inlineStr"/>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>장동선의 궁금한 뇌</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=4jMmz5RysdI</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr"/>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>#표창원 #장동선 #범죄</t>
+        </is>
+      </c>
+      <c r="E493" t="inlineStr"/>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>7,537</t>
+        </is>
+      </c>
+      <c r="G493" t="n">
+        <v>330</v>
+      </c>
+      <c r="H493" t="n">
+        <v>10</v>
+      </c>
+      <c r="I493" t="inlineStr"/>
+      <c r="J493" t="inlineStr"/>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>인생을 배우다</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=1KhyVMyxQzI</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>허세 부리는 건달 순식간에 참교육하는 방장님 #슬기로운감빵생활</t>
+        </is>
+      </c>
+      <c r="D494" t="inlineStr"/>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>https://i.ytimg.com/vi/1KhyVMyxQzI/maxres2.jpg?sqp=-oaymwEoCIAKENAF8quKqQMcGADwAQH4Ac4FgAKACooCDAgAEAEYZSBhKEkwDw==&amp;amp;rs=AOn4CLAmKUh6WjVnp4AOa0yEDxVrvzRMcQ</t>
+        </is>
+      </c>
+      <c r="F494" t="inlineStr">
+        <is>
+          <t>2,354</t>
+        </is>
+      </c>
+      <c r="G494" t="n">
+        <v>70</v>
+      </c>
+      <c r="H494" t="inlineStr"/>
+      <c r="I494" t="inlineStr"/>
+      <c r="J494" t="inlineStr">
+        <is>
+          <t>2024-11-08 18</t>
+        </is>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>방송대 지식+</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=Aut0AmHliEM</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr"/>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>#변비 #응가 #해결</t>
+        </is>
+      </c>
+      <c r="E495" t="inlineStr"/>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>20,738</t>
+        </is>
+      </c>
+      <c r="G495" t="n">
+        <v>422</v>
+      </c>
+      <c r="H495" t="n">
+        <v>5</v>
+      </c>
+      <c r="I495" t="inlineStr"/>
+      <c r="J495" t="inlineStr"/>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>The Daily Short</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=LtgYoJj25Ds</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>Dragon Egg in Real Life?!! - The Yooperlite Stone!</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr"/>
+      <c r="E496" t="inlineStr"/>
+      <c r="F496" t="inlineStr">
+        <is>
+          <t>1,962</t>
+        </is>
+      </c>
+      <c r="G496" t="n">
+        <v>93</v>
+      </c>
+      <c r="H496" t="inlineStr"/>
+      <c r="I496" t="inlineStr"/>
+      <c r="J496" t="inlineStr">
+        <is>
+          <t>2024-11-08 08</t>
+        </is>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>리틀신비🎵  키즈 율동 동요</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=ymqhYFl2_U0</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>쫄깃쫄깃 달콤고소 가래떡ㅣ어린이 동요ㅣ리틀신비 인기동요ㅣLittleShinbi</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>#신비 #벨라 #신비아파트 #리틀신비 \n#어린이동요 #고스트 #기념일 #건강간식\n#shinbi #bella #shinbihouse #littleshinbi #kidssong #kidsbestsong #songforkids #songforchildren #food #snack</t>
+        </is>
+      </c>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>https://i.ytimg.com/vi/ymqhYFl2_U0/maxres2.jpg?sqp=-oaymwEoCIAKENAF8quKqQMcGADwAQH4AbYIgAKAD4oCDAgAEAEYWCATKH8wDw==&amp;amp;rs=AOn4CLBLcVMpjMGwETob2eFfTXq-fYu-ZQ</t>
+        </is>
+      </c>
+      <c r="F497" t="inlineStr">
+        <is>
+          <t>433</t>
+        </is>
+      </c>
+      <c r="G497" t="n">
+        <v>17</v>
+      </c>
+      <c r="H497" t="inlineStr"/>
+      <c r="I497" t="inlineStr"/>
+      <c r="J497" t="inlineStr">
+        <is>
+          <t>2024-11-08 19</t>
+        </is>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>미니멀 수학</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=q9PZ6O1Im8k</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>n각형 대각선 개수</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr"/>
+      <c r="E498" t="inlineStr"/>
+      <c r="F498" t="inlineStr">
+        <is>
+          <t>4,055</t>
+        </is>
+      </c>
+      <c r="G498" t="n">
+        <v>133</v>
+      </c>
+      <c r="H498" t="n">
+        <v>16</v>
+      </c>
+      <c r="I498" t="inlineStr"/>
+      <c r="J498" t="inlineStr">
+        <is>
+          <t>2024-11-07 18</t>
+        </is>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>인벤토리</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=w2xVNkn3Tz4</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>세상에서 가장 기괴한 자동차들 ㅋㅋㅋ</t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>세상에서 가장 기괴한 자동차들 ㅋㅋㅋ</t>
+        </is>
+      </c>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>https://i.ytimg.com/vi/w2xVNkn3Tz4/maxres2.jpg?sqp=-oaymwEoCIAKENAF8quKqQMcGADwAQH4AbYIgAKAD4oCDAgAEAEYciBQKD0wDw==&amp;amp;rs=AOn4CLBRa_WVg8_CpP3wRGbwX1pClLWw9w</t>
+        </is>
+      </c>
+      <c r="F499" t="inlineStr">
+        <is>
+          <t>2,804</t>
+        </is>
+      </c>
+      <c r="G499" t="n">
+        <v>46</v>
+      </c>
+      <c r="H499" t="inlineStr"/>
+      <c r="I499" t="inlineStr"/>
+      <c r="J499" t="inlineStr">
+        <is>
+          <t>2024-11-08 00</t>
+        </is>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>수재똑</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=WwhHstRrF8M</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr"/>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>#지식, #지식나눔, #교육, #호기심, #기술, #농기구</t>
+        </is>
+      </c>
+      <c r="E500" t="inlineStr"/>
+      <c r="F500" t="inlineStr">
+        <is>
+          <t>34,286</t>
+        </is>
+      </c>
+      <c r="G500" t="n">
+        <v>167</v>
+      </c>
+      <c r="H500" t="n">
+        <v>1</v>
+      </c>
+      <c r="I500" t="inlineStr"/>
+      <c r="J500" t="inlineStr"/>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>바른생각 회계사 세무사</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=GYGYvQc8kDo</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>다가오는 겨울 방어철 꿀팁 #shorts #바른생각 #김현식</t>
+        </is>
+      </c>
+      <c r="D501" t="inlineStr"/>
+      <c r="E501" t="inlineStr">
+        <is>
+          <t>https://i.ytimg.com/vi/GYGYvQc8kDo/maxres2.jpg?sqp=-oaymwEoCIAKENAF8quKqQMcGADwAQH4AbYIgAKAD4oCDAgAEAEYQyBlKFAwDw==&amp;amp;rs=AOn4CLCCZ6t1eTyh0ALPF2uhJebNCihq9g</t>
+        </is>
+      </c>
+      <c r="F501" t="inlineStr">
+        <is>
+          <t>10,609</t>
+        </is>
+      </c>
+      <c r="G501" t="n">
+        <v>68</v>
+      </c>
+      <c r="H501" t="inlineStr"/>
+      <c r="I501" t="inlineStr"/>
+      <c r="J501" t="inlineStr">
+        <is>
+          <t>2024-10-31 00</t>
+        </is>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>생생주부[HAPPY LIFE]</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=orpUFMzPBZM</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>말로만 잘하지 말고 무난하게 에르메스! #김창옥 #김창옥쇼2 #부부소통 #선물</t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr"/>
+      <c r="E502" t="inlineStr"/>
+      <c r="F502" t="inlineStr">
+        <is>
+          <t>4,223</t>
+        </is>
+      </c>
+      <c r="G502" t="n">
+        <v>76</v>
+      </c>
+      <c r="H502" t="n">
+        <v>1</v>
+      </c>
+      <c r="I502" t="inlineStr"/>
+      <c r="J502" t="inlineStr">
+        <is>
+          <t>2024-11-08 17</t>
+        </is>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>지구과학 강의하는 박선</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=QyjkNqFHXck</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>해양생물의 95%를 대멸종시킨 사건 ㄷㄷ</t>
+        </is>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>🌍 박선 선생님 인강 🌍\nhttps://www.megastudy.net/teacher_v2/...</t>
+        </is>
+      </c>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>https://i.ytimg.com/vi/QyjkNqFHXck/maxres2.jpg?sqp=-oaymwEoCIAKENAF8quKqQMcGADwAQH4AbYIgAKAD4oCDAgAEAEYSiBlKFcwDw==&amp;amp;rs=AOn4CLArCBEmjd7J380YhKfUam4rWOMuOQ</t>
+        </is>
+      </c>
+      <c r="F503" t="inlineStr">
+        <is>
+          <t>26,195</t>
+        </is>
+      </c>
+      <c r="G503" t="n">
+        <v>369</v>
+      </c>
+      <c r="H503" t="n">
+        <v>8</v>
+      </c>
+      <c r="I503" t="inlineStr"/>
+      <c r="J503" t="inlineStr">
+        <is>
+          <t>2024-10-31 04</t>
+        </is>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>주니토니 동요동화 - 키즈캐슬</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=QcYnhzBdfPo</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr"/>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>주니토니 유튜브 공식 채널을 [구독]하고 재미있는 동요, 동화를 매 주 만나보세요 :D\n▶ https://www.youtube.com/c/KizcastleKo...\n\n⭐ NEW 주니토니 동요동화 App \n➡ https://apps.apple.com/app/apple-stor...\n➡ play.google.com/store/apps/details?id=kizcastle.junytony\u0026pli=1\n\n🛒 주니토니 스토어 바로가기\nhttps://smartstore.naver.com/junytony\n\n\n주니토니의 동요, 동화를 아래 음원 사이트에서도 감상할 수 있어요!\n▷ 멜론 http://www.melon.com/artist/timeline....\n▷ 유튜브 뮤직    / junytony - topic  \n▷ 애플 뮤직   / junytony  \n▷ 지니 http://www.genie.co.kr/detail/artistI...\n▷ 플로 https://www.music-flo.com/detail/arti...\n▷ 바이브 https://vibe.naver.com/artist/273065\n\n\n#youtubeshorts  #junytony #주니토니 #버블검 \nCopyright © 2024 KizCastle. All Rights Reserved.</t>
+        </is>
+      </c>
+      <c r="E504" t="inlineStr"/>
+      <c r="F504" t="inlineStr">
+        <is>
+          <t>25,043</t>
+        </is>
+      </c>
+      <c r="G504" t="n">
+        <v>562</v>
+      </c>
+      <c r="H504" t="inlineStr"/>
+      <c r="I504" t="inlineStr"/>
+      <c r="J504" t="inlineStr"/>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>오분역사</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=VZY7c3mnWjY</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>8년간 일본을 공포에 떨게한 전설의 의병장</t>
+        </is>
+      </c>
+      <c r="D505" t="inlineStr"/>
+      <c r="E505" t="inlineStr"/>
+      <c r="F505" t="inlineStr">
+        <is>
+          <t>24,252</t>
+        </is>
+      </c>
+      <c r="G505" t="n">
+        <v>2300</v>
+      </c>
+      <c r="H505" t="n">
+        <v>108</v>
+      </c>
+      <c r="I505" t="inlineStr"/>
+      <c r="J505" t="inlineStr">
+        <is>
+          <t>2024-11-07 22</t>
+        </is>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>명언제조</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=YbjR8YxtNiM</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>그 사람을 알 수 있는 방법 10가지. #오디오북 #인간관계 #조언 #인생명언 #처세 #명언 #동기부여 #좋은글 #명언  #지혜 #자기계발 #인생조언 #지혜</t>
+        </is>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>경험을 댓글로 공유해주세요🙏\n\n🔥우리 모두 동기부여 받고 성장해요!🔥\n\n영상 내용이 좋으셨다면,\n구독, 좋아요, 댓글로 저에게 힘을 보태주세요😻\n\n제가 콘텐츠를 제작할 때 정말 큰 힘이 됩니다🙏\n시청해주셔서 감사합니다 😌</t>
+        </is>
+      </c>
+      <c r="E506" t="inlineStr">
+        <is>
+          <t>https://i.ytimg.com/vi/YbjR8YxtNiM/maxres2.jpg?sqp=-oaymwEoCIAKENAF8quKqQMcGADwAQH4AbYIgAKAD4oCDAgAEAEYSSBfKGUwDw==&amp;amp;rs=AOn4CLAIIudG6XpE6sYqxAchTJC2zWM8-A</t>
+        </is>
+      </c>
+      <c r="F506" t="inlineStr">
+        <is>
+          <t>4,453</t>
+        </is>
+      </c>
+      <c r="G506" t="n">
+        <v>87</v>
+      </c>
+      <c r="H506" t="n">
+        <v>2</v>
+      </c>
+      <c r="I506" t="inlineStr"/>
+      <c r="J506" t="inlineStr">
+        <is>
+          <t>2024-11-07 12</t>
+        </is>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>Elice 엘리스</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=daxXeMExeVk</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr"/>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>👉 https://eli.so/brandcam5\nAI 경쟁력은 엘리스클라우드로!​\n엘리스가 직접 구축한​\nAI모델 연구개발에 최적화된 클라우드 솔루션에​\n고전력GPU를 딱 필요한 만큼만 사용할 수 있으니까​\n\n​글로벌 최저가, 엘리스클라우드​\n도입이 시급하다고 봅니다!​\n\nAI 세상의 베이스, 엘리스</t>
+        </is>
+      </c>
+      <c r="E507" t="inlineStr"/>
+      <c r="F507" t="inlineStr">
+        <is>
+          <t>17,223</t>
+        </is>
+      </c>
+      <c r="G507" t="inlineStr"/>
+      <c r="H507" t="inlineStr"/>
+      <c r="I507" t="inlineStr"/>
+      <c r="J507" t="inlineStr"/>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>자유로운이안 freeiaan</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=898Scw_DaD0</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr"/>
+      <c r="D508" t="inlineStr"/>
+      <c r="E508" t="inlineStr"/>
+      <c r="F508" t="inlineStr">
+        <is>
+          <t>293,675</t>
+        </is>
+      </c>
+      <c r="G508" t="n">
+        <v>5700</v>
+      </c>
+      <c r="H508" t="n">
+        <v>87</v>
+      </c>
+      <c r="I508" t="inlineStr"/>
+      <c r="J508" t="inlineStr"/>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>세상의모든퀘스천</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=FZy2bHJTCF0</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>F-35B 이전의 수직 이착륙 전투기? 전설이 된 해리어</t>
+        </is>
+      </c>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>F-35B 이전의 수직 이착륙 전투기 AV-8 해리어\n전설로 남은 해리어는 어떤 전투기인지 알아봅시다!\n\n\n#전투기 #F35 #해리어</t>
+        </is>
+      </c>
+      <c r="E509" t="inlineStr"/>
+      <c r="F509" t="inlineStr">
+        <is>
+          <t>8,892</t>
+        </is>
+      </c>
+      <c r="G509" t="n">
+        <v>69</v>
+      </c>
+      <c r="H509" t="inlineStr"/>
+      <c r="I509" t="inlineStr"/>
+      <c r="J509" t="inlineStr">
+        <is>
+          <t>2024-11-07 22</t>
+        </is>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>Namjoon 남준아 💜🦋</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=NDaBGDAvtmg</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr"/>
+      <c r="D510" t="inlineStr"/>
+      <c r="E510" t="inlineStr"/>
+      <c r="F510" t="inlineStr">
+        <is>
+          <t>880</t>
+        </is>
+      </c>
+      <c r="G510" t="n">
+        <v>201</v>
+      </c>
+      <c r="H510" t="n">
+        <v>7</v>
+      </c>
+      <c r="I510" t="inlineStr"/>
+      <c r="J510" t="inlineStr"/>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>국립진주박물관 JINJU NATIONAL MUSEUM</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=9_Jij2eSnQI</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>[전국민 필수 교양] 1분 만에 익히는 불랑기 발사 절차  #불랑기 #불량 아니고 불랑 #국립진주박물관 #화력조선 #나는 쏠 수 있다 #신기비결</t>
+        </is>
+      </c>
+      <c r="D511" t="inlineStr"/>
+      <c r="E511" t="inlineStr">
+        <is>
+          <t>https://i.ytimg.com/vi/9_Jij2eSnQI/maxres2.jpg?sqp=-oaymwEoCIAKENAF8quKqQMcGADwAQH4AbYIgAKAD4oCDAgAEAEYSiBlKGUwDw==&amp;amp;rs=AOn4CLAkY3wYMUu_RBprJK9_NJ7zUDtabQ</t>
+        </is>
+      </c>
+      <c r="F511" t="inlineStr">
+        <is>
+          <t>15,553</t>
+        </is>
+      </c>
+      <c r="G511" t="n">
+        <v>555</v>
+      </c>
+      <c r="H511" t="n">
+        <v>39</v>
+      </c>
+      <c r="I511" t="inlineStr"/>
+      <c r="J511" t="inlineStr">
+        <is>
+          <t>2024-11-05 00</t>
+        </is>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=VoUqsobiUVA</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>Don&amp;#39;t Pull the Wrong ROPE! 🤕</t>
+        </is>
+      </c>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>❇️ SUBSCRIBE - http://brianna.gg/subscribe\n👕 FIRE MERCH - http://www.brimerch.com\n🔥 DOWNLOAD APP - http://firemerch.app/download\n\n👀 FOLLOW ME HERE!\n☛ TikTok -   / brianna  \n☛ Instagram -   / brianna_   \n☛ Twitter -   / briarsement  \n\n🎮 MY FAN DISCORD! \n☛ https://fire.vip/discord\n\n------------------------------\n\nAdditional music provided by Epidemic Sound\nClick here for a free trial!  http://share.epidemicsound.com/TBNR\n\nIf you believe your copyrighted work was unintentionally used in this video without permission, please contact us at copyright@tbnr.net</t>
+        </is>
+      </c>
+      <c r="E512" t="inlineStr"/>
+      <c r="F512" t="inlineStr">
+        <is>
+          <t>99,343</t>
+        </is>
+      </c>
+      <c r="G512" t="n">
+        <v>5100</v>
+      </c>
+      <c r="H512" t="n">
+        <v>26</v>
+      </c>
+      <c r="I512" t="inlineStr"/>
+      <c r="J512" t="inlineStr">
+        <is>
+          <t>2024-11-08 13</t>
+        </is>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>Yummy Kids</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=OdQBWCxGFR8</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr"/>
+      <c r="D513" t="inlineStr"/>
+      <c r="E513" t="inlineStr"/>
+      <c r="F513" t="inlineStr">
+        <is>
+          <t>7,820</t>
+        </is>
+      </c>
+      <c r="G513" t="n">
+        <v>266</v>
+      </c>
+      <c r="H513" t="inlineStr"/>
+      <c r="I513" t="inlineStr"/>
+      <c r="J513" t="inlineStr"/>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MasomkaMagic  </t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=rT20vvXOLGY</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr"/>
+      <c r="D514" t="inlineStr"/>
+      <c r="E514" t="inlineStr"/>
+      <c r="F514" t="inlineStr">
+        <is>
+          <t>427</t>
+        </is>
+      </c>
+      <c r="G514" t="n">
+        <v>178</v>
+      </c>
+      <c r="H514" t="n">
+        <v>6</v>
+      </c>
+      <c r="I514" t="inlineStr"/>
+      <c r="J514" t="inlineStr"/>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>Dani Fiction</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=qiD9iscawhQ</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr"/>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>Hulk and she hulk</t>
+        </is>
+      </c>
+      <c r="E515" t="inlineStr"/>
+      <c r="F515" t="inlineStr">
+        <is>
+          <t>38,368,817</t>
+        </is>
+      </c>
+      <c r="G515" t="n">
+        <v>644000</v>
+      </c>
+      <c r="H515" t="n">
+        <v>350</v>
+      </c>
+      <c r="I515" t="inlineStr"/>
+      <c r="J515" t="inlineStr"/>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>Alisa dzmen</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=Tf4yIo0s6vo</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr"/>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>Anyone can stop drinking like this 😂😃  #couples #funny</t>
+        </is>
+      </c>
+      <c r="E516" t="inlineStr"/>
+      <c r="F516" t="inlineStr">
+        <is>
+          <t>95,787</t>
+        </is>
+      </c>
+      <c r="G516" t="n">
+        <v>2000</v>
+      </c>
+      <c r="H516" t="n">
+        <v>6</v>
+      </c>
+      <c r="I516" t="inlineStr"/>
+      <c r="J516" t="inlineStr"/>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>Super Max</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=Lupb5fBusi8</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>what kind of drinks are these?</t>
+        </is>
+      </c>
+      <c r="D517" t="inlineStr"/>
+      <c r="E517" t="inlineStr">
+        <is>
+          <t>https://i.ytimg.com/vi/Lupb5fBusi8/maxres2.jpg?sqp=-oaymwEoCIAKENAF8quKqQMcGADwAQH4AbYIgAKAD4oCDAgAEAEYfyA9KDIwDw==&amp;amp;rs=AOn4CLBczfPh3W5YJlPUrBnghfsOeukgXw</t>
+        </is>
+      </c>
+      <c r="F517" t="inlineStr">
+        <is>
+          <t>139,167</t>
+        </is>
+      </c>
+      <c r="G517" t="n">
+        <v>3500</v>
+      </c>
+      <c r="H517" t="n">
+        <v>6</v>
+      </c>
+      <c r="I517" t="inlineStr"/>
+      <c r="J517" t="inlineStr">
+        <is>
+          <t>2024-11-01 03</t>
+        </is>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>Shark Zhan</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=3jIm0VjFVyk</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>Guess the mixed color of Sprunki and Emotions #satisfying #colormixing</t>
+        </is>
+      </c>
+      <c r="D518" t="inlineStr"/>
+      <c r="E518" t="inlineStr"/>
+      <c r="F518" t="inlineStr">
+        <is>
+          <t>132,472</t>
+        </is>
+      </c>
+      <c r="G518" t="inlineStr"/>
+      <c r="H518" t="n">
+        <v>9</v>
+      </c>
+      <c r="I518" t="inlineStr"/>
+      <c r="J518" t="inlineStr">
+        <is>
+          <t>2024-11-08 03</t>
+        </is>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>Cocoa Goodies</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=A4MWSqgjTfo</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>Oil stainer / Kitchen Items, versatile &amp;amp; utensils #shorts</t>
+        </is>
+      </c>
+      <c r="D519" t="inlineStr"/>
+      <c r="E519" t="inlineStr"/>
+      <c r="F519" t="inlineStr">
+        <is>
+          <t>2,664</t>
+        </is>
+      </c>
+      <c r="G519" t="n">
+        <v>83</v>
+      </c>
+      <c r="H519" t="inlineStr"/>
+      <c r="I519" t="inlineStr"/>
+      <c r="J519" t="inlineStr">
+        <is>
+          <t>2024-11-04 07</t>
+        </is>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>Ryan's World</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=Uz8igHWQEvQ</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>Clowning Around at Ryan&amp;#39;s World!</t>
+        </is>
+      </c>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>Clowning Around at Ryan's World!</t>
+        </is>
+      </c>
+      <c r="E520" t="inlineStr">
+        <is>
+          <t>https://i.ytimg.com/vi/Uz8igHWQEvQ/maxres2.jpg?sqp=-oaymwEoCIAKENAF8quKqQMcGADwAQH4Ad4EgAK4CIoCDAgAEAEYTiBGKGUwDw==&amp;amp;rs=AOn4CLAI_EgTB_QW_IgAJpN42DhO1OJuaw</t>
+        </is>
+      </c>
+      <c r="F520" t="inlineStr">
+        <is>
+          <t>15,836</t>
+        </is>
+      </c>
+      <c r="G520" t="n">
+        <v>384</v>
+      </c>
+      <c r="H520" t="inlineStr"/>
+      <c r="I520" t="inlineStr"/>
+      <c r="J520" t="inlineStr">
+        <is>
+          <t>2024-11-08 05</t>
+        </is>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>Bukvallery</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=Jp7xdGmjFsE</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>Unexpected speed..</t>
+        </is>
+      </c>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>This video is for educational purposes only. No one was harmed in this video. Do not try this.</t>
+        </is>
+      </c>
+      <c r="E521" t="inlineStr">
+        <is>
+          <t>https://i.ytimg.com/vi/Jp7xdGmjFsE/maxres2.jpg?sqp=-oaymwEoCIAKENAF8quKqQMcGADwAQH4AbYIgAKAD4oCDAgAEAEYZSBlKGUwDw==&amp;amp;rs=AOn4CLAuC49wX578IrZIADl68PaLRtMXtg</t>
+        </is>
+      </c>
+      <c r="F521" t="inlineStr">
+        <is>
+          <t>63,748</t>
+        </is>
+      </c>
+      <c r="G521" t="n">
+        <v>1100</v>
+      </c>
+      <c r="H521" t="n">
+        <v>9</v>
+      </c>
+      <c r="I521" t="inlineStr"/>
+      <c r="J521" t="inlineStr">
+        <is>
+          <t>2024-10-14 00</t>
+        </is>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>Danny Fitt</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=sTIhIkta08A</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>David se Paso 😅 #shorts</t>
+        </is>
+      </c>
+      <c r="D522" t="inlineStr"/>
+      <c r="E522" t="inlineStr"/>
+      <c r="F522" t="inlineStr">
+        <is>
+          <t>30,125</t>
+        </is>
+      </c>
+      <c r="G522" t="n">
+        <v>2100</v>
+      </c>
+      <c r="H522" t="n">
+        <v>37</v>
+      </c>
+      <c r="I522" t="inlineStr"/>
+      <c r="J522" t="inlineStr">
+        <is>
+          <t>2024-11-08 15</t>
+        </is>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>Danny Fitt</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=XMbya9P1Fk0</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr"/>
+      <c r="D523" t="inlineStr"/>
+      <c r="E523" t="inlineStr"/>
+      <c r="F523" t="inlineStr">
+        <is>
+          <t>142,109</t>
+        </is>
+      </c>
+      <c r="G523" t="n">
+        <v>5500</v>
+      </c>
+      <c r="H523" t="n">
+        <v>58</v>
+      </c>
+      <c r="I523" t="inlineStr"/>
+      <c r="J523" t="inlineStr"/>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>Danny Fitt</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=tdwdgsjowrA</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr"/>
+      <c r="D524" t="inlineStr"/>
+      <c r="E524" t="inlineStr"/>
+      <c r="F524" t="inlineStr">
+        <is>
+          <t>90,245</t>
+        </is>
+      </c>
+      <c r="G524" t="n">
+        <v>4000</v>
+      </c>
+      <c r="H524" t="n">
+        <v>34</v>
+      </c>
+      <c r="I524" t="inlineStr"/>
+      <c r="J524" t="inlineStr"/>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>Danny Fitt</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=PjFhvu9UbvM</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>Eso no se lo Esperaba 😅 #humor #comedia #shorts</t>
+        </is>
+      </c>
+      <c r="D525" t="inlineStr"/>
+      <c r="E525" t="inlineStr"/>
+      <c r="F525" t="inlineStr">
+        <is>
+          <t>611,443</t>
+        </is>
+      </c>
+      <c r="G525" t="n">
+        <v>28000</v>
+      </c>
+      <c r="H525" t="n">
+        <v>182</v>
+      </c>
+      <c r="I525" t="inlineStr"/>
+      <c r="J525" t="inlineStr">
+        <is>
+          <t>2024-11-02 15</t>
+        </is>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>Danny Fitt</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=yRahz99ISk8</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>La Descubrieron 😅 @MelanieFitt #humor #comedia #shorts</t>
+        </is>
+      </c>
+      <c r="D526" t="inlineStr"/>
+      <c r="E526" t="inlineStr"/>
+      <c r="F526" t="inlineStr">
+        <is>
+          <t>4,626,298</t>
+        </is>
+      </c>
+      <c r="G526" t="n">
+        <v>137000</v>
+      </c>
+      <c r="H526" t="n">
+        <v>259</v>
+      </c>
+      <c r="I526" t="inlineStr"/>
+      <c r="J526" t="inlineStr">
+        <is>
+          <t>2024-11-01 14</t>
+        </is>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>Danny Fitt</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=mOKl7ptAeuk</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>Cuando estan Todo el Dia en el Telefono 😅 #humor #comedia #shorts</t>
+        </is>
+      </c>
+      <c r="D527" t="inlineStr"/>
+      <c r="E527" t="inlineStr"/>
+      <c r="F527" t="inlineStr">
+        <is>
+          <t>5,513,823</t>
+        </is>
+      </c>
+      <c r="G527" t="n">
+        <v>161000</v>
+      </c>
+      <c r="H527" t="n">
+        <v>686</v>
+      </c>
+      <c r="I527" t="inlineStr"/>
+      <c r="J527" t="inlineStr">
+        <is>
+          <t>2024-10-30 14</t>
+        </is>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>Danny Fitt</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=JfsEwMeNkNE</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>El Que lo Meta Gana 😅 #shorts</t>
+        </is>
+      </c>
+      <c r="D528" t="inlineStr"/>
+      <c r="E528" t="inlineStr"/>
+      <c r="F528" t="inlineStr">
+        <is>
+          <t>228,439</t>
+        </is>
+      </c>
+      <c r="G528" t="n">
+        <v>11000</v>
+      </c>
+      <c r="H528" t="n">
+        <v>116</v>
+      </c>
+      <c r="I528" t="inlineStr"/>
+      <c r="J528" t="inlineStr">
+        <is>
+          <t>2024-10-29 15</t>
+        </is>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>Danny Fitt</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=qsXIuEOOl2w</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>Adios Problrmas 😅 #shorts #comedia</t>
+        </is>
+      </c>
+      <c r="D529" t="inlineStr"/>
+      <c r="E529" t="inlineStr"/>
+      <c r="F529" t="inlineStr">
+        <is>
+          <t>12,291,062</t>
+        </is>
+      </c>
+      <c r="G529" t="n">
+        <v>342000</v>
+      </c>
+      <c r="H529" t="inlineStr"/>
+      <c r="I529" t="inlineStr"/>
+      <c r="J529" t="inlineStr">
+        <is>
+          <t>2024-10-28 15</t>
+        </is>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>Artistomg</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=2qRn0GWKyj8</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr"/>
+      <c r="D530" t="inlineStr"/>
+      <c r="E530" t="inlineStr"/>
+      <c r="F530" t="inlineStr">
+        <is>
+          <t>705,982</t>
+        </is>
+      </c>
+      <c r="G530" t="n">
+        <v>31000</v>
+      </c>
+      <c r="H530" t="n">
+        <v>137</v>
+      </c>
+      <c r="I530" t="inlineStr"/>
+      <c r="J530" t="inlineStr"/>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>Zach King</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=OZ2jP_DiS24</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>That could have gone better 😅</t>
+        </is>
+      </c>
+      <c r="D531" t="inlineStr"/>
+      <c r="E531" t="inlineStr">
+        <is>
+          <t>https://i.ytimg.com/vi/OZ2jP_DiS24/maxres2.jpg?sqp=-oaymwEoCIAKENAF8quKqQMcGADwAQH4AbYIgAKAD4oCDAgAEAEYciBHKDwwDw==&amp;amp;rs=AOn4CLAqFyjK-Hp_CLulWERWLf4MDPbziA</t>
+        </is>
+      </c>
+      <c r="F531" t="inlineStr">
+        <is>
+          <t>1,390,819</t>
+        </is>
+      </c>
+      <c r="G531" t="n">
+        <v>42000</v>
+      </c>
+      <c r="H531" t="n">
+        <v>184</v>
+      </c>
+      <c r="I531" t="inlineStr"/>
+      <c r="J531" t="inlineStr">
+        <is>
+          <t>2024-11-06 04</t>
+        </is>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>Mr DegrEE</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=KNPf8Da5hCc</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr"/>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>You Need To Know How To Growing DIY crystal trees! Thank you for watching. Subscribe to Mr Degree\n\n#shortsvideo \n\nThe following video might feature activity performed by our actors within controlled environment - please use judgment, care, and precaution if you plan to replicate.\n\nAll product and company names shown in the video are trademarks™ or registered® trademarks of their respective holders. Use of them does not imply any affiliation with or endorsement by them.</t>
+        </is>
+      </c>
+      <c r="E532" t="inlineStr"/>
+      <c r="F532" t="inlineStr">
+        <is>
+          <t>196,926</t>
+        </is>
+      </c>
+      <c r="G532" t="n">
+        <v>5500</v>
+      </c>
+      <c r="H532" t="n">
+        <v>24</v>
+      </c>
+      <c r="I532" t="inlineStr"/>
+      <c r="J532" t="inlineStr"/>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>TAE &amp; NYAH</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=h1m0DL_MwgE</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr"/>
+      <c r="D533" t="inlineStr"/>
+      <c r="E533" t="inlineStr"/>
+      <c r="F533" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="G533" t="n">
+        <v>7</v>
+      </c>
+      <c r="H533" t="inlineStr"/>
+      <c r="I533" t="inlineStr"/>
+      <c r="J533" t="inlineStr"/>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>Magic Illusion</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=QL85LtYSXEA</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>Grey Kitten Gets into Big Trouble at Midnight! 🌕❗</t>
+        </is>
+      </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>Grey Kitten Gets into Big Trouble at Midnight! 🌕❗</t>
+        </is>
+      </c>
+      <c r="E534" t="inlineStr">
+        <is>
+          <t>https://i.ytimg.com/vi/QL85LtYSXEA/maxres2.jpg?sqp=-oaymwEoCIAKENAF8quKqQMcGADwAQH4AbYIgAKAD4oCDAgAEAEYfyA2KDQwDw==&amp;amp;rs=AOn4CLAEc5PECUvYzRZusFYtD8RoI2PJLg</t>
+        </is>
+      </c>
+      <c r="F534" t="inlineStr">
+        <is>
+          <t>5,872</t>
+        </is>
+      </c>
+      <c r="G534" t="n">
+        <v>335</v>
+      </c>
+      <c r="H534" t="n">
+        <v>15</v>
+      </c>
+      <c r="I534" t="inlineStr"/>
+      <c r="J534" t="inlineStr">
+        <is>
+          <t>2024-11-07 04</t>
+        </is>
+      </c>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>Bebefinn - Nursery Rhymes &amp; Kids Songs</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=V8d2d8gQdhc</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr"/>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>★Continue to watch here! ➡️\n\nSubscribe and watch full version of the songs uploaded every week.\n★ YouTube Channel:    / @bebefinn  \n\n☀️Good Morning! Bebefinn Healthy Habit Songs Playlist\n   • ☀️Good Morning Bebefinn! Wake up Bora...  \n\n\n----\nFollow us on Social Media for new updates and free promotions.\n★ App (Baby Shark Best Kids Songs \u0026 Stories) https://fong.kr/119/09\n🎁 Visit our Official Store : https://fong.kr/10826/\n★ Website: https://www.pinkfong.com\n★ TikTok:   / bebefinn_official  \n★ Instagram:   / bebefinn.official  \n★ Facebook: https://www.facebook.com/bebefinn.glo...\n★ Twitter:   / pinkfong_usa  \n\nPlease take a moment, and participate in a survey for better contents ✅ We would love to hear anything from you!  💗\nhttps://forms.gle/83JN6rvW11oWcB977\n\n#Bebefinn #BebefinnNurseryrhymes #BebefinnBabyShark\nCopyright © 2024 The Pinkfong Company, Inc.  All Rights Reserved.</t>
+        </is>
+      </c>
+      <c r="E535" t="inlineStr"/>
+      <c r="F535" t="inlineStr">
+        <is>
+          <t>200,581</t>
+        </is>
+      </c>
+      <c r="G535" t="n">
+        <v>5200</v>
+      </c>
+      <c r="H535" t="inlineStr"/>
+      <c r="I535" t="inlineStr"/>
+      <c r="J535" t="inlineStr"/>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>ShortsTrickTV</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=a9ahfjpnnUg</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>White leek cutting style</t>
+        </is>
+      </c>
+      <c r="D536" t="inlineStr"/>
+      <c r="E536" t="inlineStr">
+        <is>
+          <t>https://i.ytimg.com/vi/a9ahfjpnnUg/maxres2.jpg?sqp=-oaymwEoCIAKENAF8quKqQMcGADwAQH4AbYIgAKAD4oCDAgAEAEYZSBOKEIwDw==&amp;amp;rs=AOn4CLCSycmL7K12hOFb8jx7dwU381upZg</t>
+        </is>
+      </c>
+      <c r="F536" t="inlineStr">
+        <is>
+          <t>7,699</t>
+        </is>
+      </c>
+      <c r="G536" t="n">
+        <v>65</v>
+      </c>
+      <c r="H536" t="inlineStr"/>
+      <c r="I536" t="inlineStr"/>
+      <c r="J536" t="inlineStr">
+        <is>
+          <t>2024-11-08 04</t>
+        </is>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>RusMovies</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=lHVnW7ODViY</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr"/>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>Rus_Movies - канал с короткими новостями, где публикуются интересные события со всего мира ежедневно!</t>
+        </is>
+      </c>
+      <c r="E537" t="inlineStr"/>
+      <c r="F537" t="inlineStr">
+        <is>
+          <t>6,363</t>
+        </is>
+      </c>
+      <c r="G537" t="n">
+        <v>225</v>
+      </c>
+      <c r="H537" t="inlineStr"/>
+      <c r="I537" t="inlineStr"/>
+      <c r="J537" t="inlineStr"/>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>HeavenlyEchoes</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=p9ek2ORmHW8</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr"/>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>In this video, we will witness the confrontation between Jesus and Satan. \nJesus demonstrates that goodness always triumphs over evil. \nDon’t forget to like and subscribe to our channel for more exciting content!</t>
+        </is>
+      </c>
+      <c r="E538" t="inlineStr"/>
+      <c r="F538" t="inlineStr">
+        <is>
+          <t>10,853</t>
+        </is>
+      </c>
+      <c r="G538" t="n">
+        <v>717</v>
+      </c>
+      <c r="H538" t="n">
+        <v>14</v>
+      </c>
+      <c r="I538" t="inlineStr"/>
+      <c r="J538" t="inlineStr"/>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>Vlad and Niki</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=oig1EC6HVz0</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>Who’s at the door? - Knock knock song for kids</t>
+        </is>
+      </c>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>Who’s at the door? - Knock knock song for kids</t>
+        </is>
+      </c>
+      <c r="E539" t="inlineStr"/>
+      <c r="F539" t="inlineStr">
+        <is>
+          <t>3,054,767</t>
+        </is>
+      </c>
+      <c r="G539" t="n">
+        <v>48000</v>
+      </c>
+      <c r="H539" t="inlineStr"/>
+      <c r="I539" t="inlineStr"/>
+      <c r="J539" t="inlineStr">
+        <is>
+          <t>2024-10-08 03</t>
+        </is>
+      </c>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>키레 Keere</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=jQyEZTD0lyg</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>당신의 최애를 고르시오! #shorts</t>
+        </is>
+      </c>
+      <c r="D540" t="inlineStr"/>
+      <c r="E540" t="inlineStr"/>
+      <c r="F540" t="inlineStr">
+        <is>
+          <t>3,064</t>
+        </is>
+      </c>
+      <c r="G540" t="n">
+        <v>134</v>
+      </c>
+      <c r="H540" t="n">
+        <v>25</v>
+      </c>
+      <c r="I540" t="inlineStr"/>
+      <c r="J540" t="inlineStr">
+        <is>
+          <t>2024-11-05 23</t>
+        </is>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>옐라이 Yella.E</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=snrdONhXECM</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>KARINA(aespa) - UP | Singing Duet Challenge 🎤 | Sing with me #shorts</t>
+        </is>
+      </c>
+      <c r="D541" t="inlineStr">
+        <is>
+          <t xml:space="preserve">KARINA(aespa) - UP | Singing Duet Challenge 🎤 | Sing with me #shorts\n\n#KARINA #aespa #UP #카리나 #에스파\n#duetwithme #singwithme #pop \n#옐라이 #yellae\n\n▹ FOLLOW ME\nINSTAGRAM :   / __yella_e__  \nTIKTOK :   / yella.e  </t>
+        </is>
+      </c>
+      <c r="E541" t="inlineStr">
+        <is>
+          <t>https://i.ytimg.com/vi/snrdONhXECM/maxres2.jpg?sqp=-oaymwEoCIAKENAF8quKqQMcGADwAQH4AbYIgAKAD4oCDAgAEAEYNiA-KH8wDw==&amp;amp;rs=AOn4CLAfah6c-McDqzlObLQOZ9Pzkvd4WQ</t>
+        </is>
+      </c>
+      <c r="F541" t="inlineStr">
+        <is>
+          <t>10,440</t>
+        </is>
+      </c>
+      <c r="G541" t="n">
+        <v>352</v>
+      </c>
+      <c r="H541" t="n">
+        <v>14</v>
+      </c>
+      <c r="I541" t="inlineStr"/>
+      <c r="J541" t="inlineStr">
+        <is>
+          <t>2024-11-08 01</t>
+        </is>
+      </c>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>Cocobi Português - Músicas Infantis</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=vgk5dS39aDA</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>Vamos Salvar o Leão Preso! #Shorts #forKids #Cocobi</t>
+        </is>
+      </c>
+      <c r="D542" t="inlineStr">
+        <is>
+          <t>[CLIQUE E INSCREVA-SE] em nosso canal!\nAprecie os novos vídeos divertidos com apenas um clique!\n●Mais músicas do Cocobi :    • 😍As Melhores Canções de Cocobi para C...  \n\nAproveite os vídeos do Cocobi em outros idiomas!\n● Canal Inglês Cocobi:    / @cocobi_en  \n● Canal Coreano Cocobi:    / @cocobi_ko  \n● Canal Espanhol Cocobi:    / @cocobi_es  \n● Canal Japonês Cocobi:    / @cocobi_ja  \n● Canal Indonésio de Cocobi:    / @cocobi_id  \n\n-\n\n#paraCrianças #CantigasDeRoda \n#músicainfantil #CançãoParaCrianças \n#Kidssong #forKids #NurseryRhymes\n\nCopyright 2021. KIGLE Corp. Todos os direitos reservados.</t>
+        </is>
+      </c>
+      <c r="E542" t="inlineStr"/>
+      <c r="F542" t="inlineStr">
+        <is>
+          <t>57,067</t>
+        </is>
+      </c>
+      <c r="G542" t="inlineStr"/>
+      <c r="H542" t="inlineStr"/>
+      <c r="I542" t="inlineStr"/>
+      <c r="J542" t="inlineStr">
+        <is>
+          <t>2024-11-05 03</t>
+        </is>
+      </c>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>WOWCG</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=unFewEq7vYw</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>Minecraft Ball 28</t>
+        </is>
+      </c>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>Infinite Minecraft Loop\n👍 Please support my work by subscribing to my channel</t>
+        </is>
+      </c>
+      <c r="E543" t="inlineStr">
+        <is>
+          <t>https://i.ytimg.com/vi/unFewEq7vYw/maxres2.jpg?sqp=-oaymwEoCIAKENAF8quKqQMcGADwAQH4AbYIgAKAD4oCDAgAEAEYJyBdKHIwDw==&amp;amp;rs=AOn4CLDUk0Ws4RocMt1Ty2YnGu3nKq-fcA</t>
+        </is>
+      </c>
+      <c r="F543" t="inlineStr">
+        <is>
+          <t>43,257</t>
+        </is>
+      </c>
+      <c r="G543" t="n">
+        <v>483</v>
+      </c>
+      <c r="H543" t="inlineStr"/>
+      <c r="I543" t="inlineStr"/>
+      <c r="J543" t="inlineStr">
+        <is>
+          <t>2024-11-07 12</t>
+        </is>
+      </c>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>Bitgoeul Dancers</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=jY6sLctYaRE</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>THE REAL DEAL🔥MR.WIGGLES🔥🔥🔥 2024 BATTLE LINEUP #dance #popping</t>
+        </is>
+      </c>
+      <c r="D544" t="inlineStr"/>
+      <c r="E544" t="inlineStr"/>
+      <c r="F544" t="inlineStr">
+        <is>
+          <t>5,850</t>
+        </is>
+      </c>
+      <c r="G544" t="n">
+        <v>127</v>
+      </c>
+      <c r="H544" t="n">
+        <v>3</v>
+      </c>
+      <c r="I544" t="inlineStr"/>
+      <c r="J544" t="inlineStr">
+        <is>
+          <t>2024-10-31 05</t>
+        </is>
+      </c>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>대출보따리</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=8gXEkxwVbA0</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>비상금대출 거절 이젠 걱정 NO! 여기서 10분이면 해결 #비상금대출거절</t>
+        </is>
+      </c>
+      <c r="D545" t="inlineStr">
+        <is>
+          <t>비상금대출 거절 이젠 걱정 NO! 여기서 10분이면 해결 #비상금대출거절\n\n그동안 비상금대출 거절되셔서 속 상하셨던 분들 많으시죠?\n이제는 더이상 신용과 소득에 상관없이 이 비상금대출 해결하실 수\n있는 방법을 오늘 영상에서 배워보셔서 해결하시길 바랄게요!\n\n#비상금대출 #소액대출 #대출받는법</t>
+        </is>
+      </c>
+      <c r="E545" t="inlineStr">
+        <is>
+          <t>https://i.ytimg.com/vi/8gXEkxwVbA0/maxres2.jpg?sqp=-oaymwEoCIAKENAF8quKqQMcGADwAQH4AbYIgAKAD4oCDAgAEAEYZSBlKGUwDw==&amp;amp;rs=AOn4CLBrY_Izns6jAObZJcRFy045QtHVNg</t>
+        </is>
+      </c>
+      <c r="F545" t="inlineStr">
+        <is>
+          <t>5,809</t>
+        </is>
+      </c>
+      <c r="G545" t="n">
+        <v>1500</v>
+      </c>
+      <c r="H545" t="n">
+        <v>5</v>
+      </c>
+      <c r="I545" t="inlineStr"/>
+      <c r="J545" t="inlineStr">
+        <is>
+          <t>2024-05-01 02</t>
+        </is>
+      </c>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>NIDA</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=5_4JGLDEWOU</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>벌써 겨울 냄새가 나는 것 같다..</t>
+        </is>
+      </c>
+      <c r="D546" t="inlineStr">
+        <is>
+          <t>#intotheunknown #frozen #disney #sing #singing #cover #vocals #highnotes #커버 #겨울왕국</t>
+        </is>
+      </c>
+      <c r="E546" t="inlineStr"/>
+      <c r="F546" t="inlineStr">
+        <is>
+          <t>5,239</t>
+        </is>
+      </c>
+      <c r="G546" t="n">
+        <v>405</v>
+      </c>
+      <c r="H546" t="n">
+        <v>16</v>
+      </c>
+      <c r="I546" t="inlineStr"/>
+      <c r="J546" t="inlineStr">
+        <is>
+          <t>2024-11-08 03</t>
+        </is>
+      </c>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>조군조군</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=qbv8Hl8tIGY</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>ColdPlay Yellow acoustic cover #yellow</t>
+        </is>
+      </c>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>ColdPlay Yellow acoustic cover\n\n#yellow #coldplay #guitarcover</t>
+        </is>
+      </c>
+      <c r="E547" t="inlineStr">
+        <is>
+          <t>https://i.ytimg.com/vi/qbv8Hl8tIGY/maxres2.jpg?sqp=-oaymwEoCIAKENAF8quKqQMcGADwAQH4AbYIgAKAD4oCDAgAEAEYRCBNKHIwDw==&amp;amp;rs=AOn4CLB2RoX9ebAn9cSdbUnyJjn9FxQqew</t>
+        </is>
+      </c>
+      <c r="F547" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="G547" t="n">
+        <v>5</v>
+      </c>
+      <c r="H547" t="inlineStr"/>
+      <c r="I547" t="inlineStr"/>
+      <c r="J547" t="inlineStr">
+        <is>
+          <t>2024-11-07 03</t>
+        </is>
+      </c>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>또 오해원</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=6ZXVMeVy9jU</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>[엔믹스] 콜라겐 광고 찍은 마법 소녀 오해원 ㅋㅋㅋㅋ</t>
+        </is>
+      </c>
+      <c r="D548" t="inlineStr">
+        <is>
+          <t>[엔믹스] 콜라겐 광고 찍은 마법 소녀 오해원 ㅋㅋㅋㅋ\n\n[비비랩 핑크통 콜라겐]\n풀영상은 '뉴트리원’ 유튜브 채널에서 보실 수 있습니다.\n\n#엔믹스 #NMIXX #해원 #릴리 #설윤 #배이 #지우 #규진</t>
+        </is>
+      </c>
+      <c r="E548" t="inlineStr"/>
+      <c r="F548" t="inlineStr">
+        <is>
+          <t>97,473</t>
+        </is>
+      </c>
+      <c r="G548" t="n">
+        <v>7700</v>
+      </c>
+      <c r="H548" t="n">
+        <v>199</v>
+      </c>
+      <c r="I548" t="inlineStr"/>
+      <c r="J548" t="inlineStr">
+        <is>
+          <t>2024-11-08 00</t>
+        </is>
+      </c>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
